--- a/柱状改良の検討.xlsx
+++ b/柱状改良の検討.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18135" windowHeight="12345" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18138" windowHeight="12348" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="鉛直" sheetId="1" state="visible" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'水平 X'!$A$1:$AQ$76</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'水平 Y'!$A$1:$AQ$76</definedName>
   </definedNames>
-  <calcPr calcId="179017" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1774,6 +1774,18 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1787,18 +1799,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3967,12 +3967,14 @@
   <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
+      <sheetName val="xans"/>
     </sheetNames>
     <definedNames>
       <definedName name="answer"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4245,25 +4247,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:V114"/>
+  <dimension ref="A2:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="D4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col width="6.125" customWidth="1" style="71" min="1" max="2"/>
+    <col width="6.1015625" customWidth="1" style="71" min="1" max="2"/>
     <col width="9" customWidth="1" style="71" min="3" max="10"/>
-    <col width="7.125" customWidth="1" style="71" min="11" max="11"/>
+    <col width="7.1015625" customWidth="1" style="71" min="11" max="11"/>
     <col width="26" customWidth="1" style="75" min="12" max="12"/>
-    <col width="12.625" customWidth="1" style="73" min="13" max="13"/>
-    <col width="8.125" customWidth="1" style="58" min="14" max="14"/>
-    <col width="8.625" customWidth="1" style="71" min="15" max="20"/>
-    <col width="7.125" customWidth="1" style="71" min="21" max="22"/>
-    <col width="7.25" customWidth="1" style="71" min="23" max="45"/>
-    <col width="9" customWidth="1" style="71" min="46" max="88"/>
-    <col width="9" customWidth="1" style="71" min="89" max="16384"/>
+    <col width="12.62890625" customWidth="1" style="73" min="13" max="13"/>
+    <col width="8.1015625" customWidth="1" style="58" min="14" max="14"/>
+    <col width="8.62890625" customWidth="1" style="71" min="15" max="20"/>
+    <col width="7.1015625" customWidth="1" style="71" min="21" max="22"/>
+    <col width="7.26171875" customWidth="1" style="71" min="23" max="45"/>
+    <col width="9" customWidth="1" style="71" min="46" max="92"/>
+    <col width="9" customWidth="1" style="71" min="93" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="17.25" customHeight="1" s="173">
@@ -4313,32 +4315,54 @@
       <c r="N6" s="547" t="n"/>
       <c r="O6" s="94" t="inlineStr">
         <is>
+          <t>F2C</t>
+        </is>
+      </c>
+      <c r="P6" s="99" t="inlineStr">
+        <is>
           <t>F1</t>
         </is>
       </c>
-      <c r="P6" s="99" t="inlineStr">
+      <c r="Q6" s="92" t="inlineStr">
+        <is>
+          <t>F3B</t>
+        </is>
+      </c>
+      <c r="R6" s="99" t="inlineStr">
+        <is>
+          <t>F2B</t>
+        </is>
+      </c>
+      <c r="S6" s="99" t="inlineStr">
+        <is>
+          <t>F21</t>
+        </is>
+      </c>
+      <c r="T6" s="92" t="inlineStr">
+        <is>
+          <t>F4</t>
+        </is>
+      </c>
+      <c r="U6" s="58" t="inlineStr">
+        <is>
+          <t>F3</t>
+        </is>
+      </c>
+      <c r="V6" s="58" t="inlineStr">
+        <is>
+          <t>F2A</t>
+        </is>
+      </c>
+      <c r="W6" s="32" t="inlineStr">
+        <is>
+          <t>F1A</t>
+        </is>
+      </c>
+      <c r="X6" s="32" t="inlineStr">
         <is>
           <t>F2</t>
         </is>
       </c>
-      <c r="Q6" s="92" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="R6" s="99" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="S6" s="99" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="T6" s="92" t="n"/>
-      <c r="U6" s="58" t="n"/>
-      <c r="V6" s="58" t="n"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" s="173">
       <c r="K7" s="548" t="inlineStr">
@@ -4351,32 +4375,54 @@
       <c r="N7" s="550" t="n"/>
       <c r="O7" s="95" t="inlineStr">
         <is>
-          <t>3-A</t>
+          <t>4-B</t>
         </is>
       </c>
       <c r="P7" s="100" t="inlineStr">
         <is>
-          <t>2-A</t>
+          <t>2A-A</t>
         </is>
       </c>
       <c r="Q7" s="93" t="inlineStr">
         <is>
-          <t>8-E</t>
+          <t>1-E</t>
         </is>
       </c>
       <c r="R7" s="100" t="inlineStr">
         <is>
-          <t>6-B</t>
+          <t>1-F</t>
         </is>
       </c>
       <c r="S7" s="100" t="inlineStr">
         <is>
-          <t>9-c1</t>
-        </is>
-      </c>
-      <c r="T7" s="93" t="n"/>
-      <c r="U7" s="58" t="n"/>
-      <c r="V7" s="58" t="n"/>
+          <t>1A-C</t>
+        </is>
+      </c>
+      <c r="T7" s="93" t="inlineStr">
+        <is>
+          <t>3-C</t>
+        </is>
+      </c>
+      <c r="U7" s="58" t="inlineStr">
+        <is>
+          <t>3-D</t>
+        </is>
+      </c>
+      <c r="V7" s="58" t="inlineStr">
+        <is>
+          <t>1A-E</t>
+        </is>
+      </c>
+      <c r="W7" s="32" t="inlineStr">
+        <is>
+          <t>1A-D</t>
+        </is>
+      </c>
+      <c r="X7" s="32" t="inlineStr">
+        <is>
+          <t>1-A</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" s="173">
       <c r="A8" s="87" t="inlineStr">
@@ -7451,6 +7497,14 @@
   </dataValidations>
   <pageMargins left="0.7874015748031497" right="0.5905511811023623" top="0.984251968503937" bottom="0.984251968503937" header="0.5118110236220472" footer="0.5118110236220472"/>
   <pageSetup orientation="portrait" paperSize="9" scale="82" fitToHeight="2" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="57" min="0" max="19" man="1"/>
   </rowBreaks>
@@ -7472,12 +7526,12 @@
       <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.9"/>
   <cols>
-    <col width="4.5" bestFit="1" customWidth="1" style="173" min="1" max="1"/>
-    <col width="9.125" bestFit="1" customWidth="1" style="173" min="2" max="4"/>
-    <col width="9.5" bestFit="1" customWidth="1" style="173" min="5" max="5"/>
-    <col width="9.125" bestFit="1" customWidth="1" style="173" min="6" max="9"/>
+    <col width="4.47265625" bestFit="1" customWidth="1" style="173" min="1" max="1"/>
+    <col width="9.1015625" bestFit="1" customWidth="1" style="173" min="2" max="4"/>
+    <col width="9.47265625" bestFit="1" customWidth="1" style="173" min="5" max="5"/>
+    <col width="9.1015625" bestFit="1" customWidth="1" style="173" min="6" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9699,6 +9753,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.512" footer="0.512"/>
+  <pageSetup orientation="portrait" paperSize="9" copies="0"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -9714,7 +9777,7 @@
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.9"/>
   <sheetData>
     <row r="18">
       <c r="H18" s="32" t="n">
@@ -10671,6 +10734,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" copies="0"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10686,7 +10758,7 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.9"/>
   <sheetData>
     <row r="3">
       <c r="B3" s="32" t="inlineStr">
@@ -11222,6 +11294,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" copies="0"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -11237,9 +11318,9 @@
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.9"/>
   <cols>
-    <col width="9.875" bestFit="1" customWidth="1" style="173" min="16" max="16"/>
+    <col width="9.89453125" bestFit="1" customWidth="1" style="173" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -11791,6 +11872,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" copies="0"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -11800,36 +11890,36 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:W66"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col width="9" customWidth="1" style="39" min="1" max="1"/>
-    <col width="6.375" customWidth="1" style="39" min="2" max="2"/>
-    <col width="13.875" customWidth="1" style="39" min="3" max="3"/>
+    <col width="6.3671875" customWidth="1" style="39" min="2" max="2"/>
+    <col width="13.89453125" customWidth="1" style="39" min="3" max="3"/>
     <col width="9" customWidth="1" style="39" min="4" max="6"/>
-    <col width="3.75" bestFit="1" customWidth="1" style="39" min="7" max="7"/>
+    <col width="3.734375" bestFit="1" customWidth="1" style="39" min="7" max="7"/>
     <col width="9" customWidth="1" style="39" min="8" max="10"/>
     <col width="10" customWidth="1" style="39" min="11" max="11"/>
-    <col width="10.375" customWidth="1" style="39" min="12" max="13"/>
-    <col width="11.75" customWidth="1" style="39" min="14" max="19"/>
-    <col width="5.875" customWidth="1" style="39" min="20" max="28"/>
-    <col width="7.5" bestFit="1" customWidth="1" style="39" min="29" max="29"/>
+    <col width="10.3671875" customWidth="1" style="39" min="12" max="13"/>
+    <col width="11.734375" customWidth="1" style="39" min="14" max="19"/>
+    <col width="5.89453125" customWidth="1" style="39" min="20" max="28"/>
+    <col width="7.47265625" bestFit="1" customWidth="1" style="39" min="29" max="29"/>
     <col width="7" customWidth="1" style="39" min="30" max="30"/>
-    <col width="3.875" customWidth="1" style="39" min="31" max="31"/>
-    <col width="4.75" customWidth="1" style="39" min="32" max="32"/>
-    <col width="3.875" customWidth="1" style="39" min="33" max="33"/>
-    <col width="7.125" bestFit="1" customWidth="1" style="39" min="34" max="34"/>
-    <col width="3.875" customWidth="1" style="39" min="35" max="36"/>
-    <col width="5.5" customWidth="1" style="39" min="37" max="37"/>
-    <col width="4.875" customWidth="1" style="39" min="38" max="38"/>
-    <col width="3.875" customWidth="1" style="39" min="39" max="49"/>
-    <col width="9" customWidth="1" style="39" min="50" max="92"/>
-    <col width="9" customWidth="1" style="39" min="93" max="16384"/>
+    <col width="3.89453125" customWidth="1" style="39" min="31" max="31"/>
+    <col width="4.734375" customWidth="1" style="39" min="32" max="32"/>
+    <col width="3.89453125" customWidth="1" style="39" min="33" max="33"/>
+    <col width="7.1015625" bestFit="1" customWidth="1" style="39" min="34" max="34"/>
+    <col width="3.89453125" customWidth="1" style="39" min="35" max="36"/>
+    <col width="5.47265625" customWidth="1" style="39" min="37" max="37"/>
+    <col width="4.89453125" customWidth="1" style="39" min="38" max="38"/>
+    <col width="3.89453125" customWidth="1" style="39" min="39" max="49"/>
+    <col width="9" customWidth="1" style="39" min="50" max="96"/>
+    <col width="9" customWidth="1" style="39" min="97" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12070,21 +12160,35 @@
         </is>
       </c>
       <c r="N8" s="645" t="n">
-        <v>84</v>
+        <v>162.6</v>
       </c>
       <c r="O8" s="646" t="n">
-        <v>188.8</v>
+        <v>28.6</v>
       </c>
       <c r="P8" s="646" t="n">
-        <v>206.6</v>
+        <v>331.9</v>
       </c>
       <c r="Q8" s="646" t="n">
-        <v>216.7</v>
+        <v>157.4</v>
       </c>
       <c r="R8" s="646" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="S8" s="647" t="n"/>
+        <v>213.2</v>
+      </c>
+      <c r="S8" s="647" t="n">
+        <v>369.9</v>
+      </c>
+      <c r="T8" s="32" t="n">
+        <v>354.2</v>
+      </c>
+      <c r="U8" s="32" t="n">
+        <v>182.6</v>
+      </c>
+      <c r="V8" s="32" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="W8" s="32" t="n">
+        <v>215.1</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="39" t="inlineStr">
@@ -12148,21 +12252,35 @@
         </is>
       </c>
       <c r="N10" s="645" t="n">
-        <v>85.7</v>
+        <v>208.7</v>
       </c>
       <c r="O10" s="646" t="n">
-        <v>190.3</v>
+        <v>36.2</v>
       </c>
       <c r="P10" s="646" t="n">
-        <v>245.8</v>
+        <v>360.5</v>
       </c>
       <c r="Q10" s="646" t="n">
-        <v>220.9</v>
+        <v>199.3</v>
       </c>
       <c r="R10" s="646" t="n">
+        <v>232.1</v>
+      </c>
+      <c r="S10" s="647" t="n">
+        <v>396.1</v>
+      </c>
+      <c r="T10" s="32" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="U10" s="32" t="n">
         <v>188.7</v>
       </c>
-      <c r="S10" s="647" t="n"/>
+      <c r="V10" s="32" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="W10" s="32" t="n">
+        <v>254.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="K11" s="544" t="n"/>
@@ -13982,6 +14100,14 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.512" footer="0.512"/>
   <pageSetup orientation="portrait" paperSize="9" scale="75" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" min="0" max="67" man="1"/>
   </colBreaks>
@@ -14000,15 +14126,15 @@
       <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
   <cols>
-    <col width="7.125" customWidth="1" style="168" min="1" max="1"/>
+    <col width="7.1015625" customWidth="1" style="168" min="1" max="1"/>
     <col width="26" customWidth="1" style="174" min="2" max="2"/>
-    <col width="9.625" customWidth="1" style="175" min="3" max="3"/>
-    <col width="9.625" customWidth="1" style="202" min="4" max="4"/>
-    <col width="7.625" customWidth="1" style="168" min="5" max="43"/>
-    <col width="9" customWidth="1" style="168" min="44" max="78"/>
-    <col width="9" customWidth="1" style="168" min="79" max="16384"/>
+    <col width="9.62890625" customWidth="1" style="175" min="3" max="3"/>
+    <col width="9.62890625" customWidth="1" style="202" min="4" max="4"/>
+    <col width="7.62890625" customWidth="1" style="168" min="5" max="43"/>
+    <col width="9" customWidth="1" style="168" min="44" max="82"/>
+    <col width="9" customWidth="1" style="168" min="83" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="17.25" customHeight="1" s="173"/>
@@ -14214,7 +14340,7 @@
           <t>F23</t>
         </is>
       </c>
-      <c r="AQ8" s="226" t="inlineStr">
+      <c r="AQ8" s="221" t="inlineStr">
         <is>
           <t>F22</t>
         </is>
@@ -14235,7 +14361,7 @@
           <t>2</t>
         </is>
       </c>
-      <c r="G9" s="227" t="inlineStr">
+      <c r="G9" s="222" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -14250,172 +14376,172 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J9" s="227" t="inlineStr">
+      <c r="J9" s="222" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K9" s="227" t="inlineStr">
+      <c r="K9" s="222" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L9" s="227" t="inlineStr">
+      <c r="L9" s="222" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M9" s="227" t="inlineStr">
+      <c r="M9" s="222" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N9" s="227" t="inlineStr">
+      <c r="N9" s="222" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" s="227" t="inlineStr">
+      <c r="O9" s="222" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P9" s="227" t="inlineStr">
+      <c r="P9" s="222" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Q9" s="227" t="inlineStr">
+      <c r="Q9" s="222" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="R9" s="227" t="inlineStr">
+      <c r="R9" s="222" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="S9" s="227" t="inlineStr">
+      <c r="S9" s="222" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T9" s="227" t="inlineStr">
+      <c r="T9" s="222" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="U9" s="227" t="inlineStr">
+      <c r="U9" s="222" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="V9" s="227" t="inlineStr">
+      <c r="V9" s="222" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W9" s="227" t="inlineStr">
+      <c r="W9" s="222" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X9" s="227" t="inlineStr">
+      <c r="X9" s="222" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="Y9" s="227" t="inlineStr">
+      <c r="Y9" s="222" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="Z9" s="227" t="inlineStr">
+      <c r="Z9" s="222" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AA9" s="227" t="inlineStr">
+      <c r="AA9" s="222" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AB9" s="227" t="inlineStr">
+      <c r="AB9" s="222" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AC9" s="227" t="inlineStr">
+      <c r="AC9" s="222" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AD9" s="227" t="inlineStr">
+      <c r="AD9" s="222" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE9" s="227" t="inlineStr">
+      <c r="AE9" s="222" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AF9" s="227" t="inlineStr">
+      <c r="AF9" s="222" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AG9" s="227" t="inlineStr">
+      <c r="AG9" s="222" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH9" s="227" t="inlineStr">
+      <c r="AH9" s="222" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AI9" s="227" t="inlineStr">
+      <c r="AI9" s="222" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AJ9" s="227" t="inlineStr">
+      <c r="AJ9" s="222" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AK9" s="227" t="inlineStr">
+      <c r="AK9" s="222" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AL9" s="227" t="inlineStr">
+      <c r="AL9" s="222" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AM9" s="227" t="inlineStr">
+      <c r="AM9" s="222" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AN9" s="227" t="inlineStr">
+      <c r="AN9" s="222" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AO9" s="227" t="inlineStr">
+      <c r="AO9" s="222" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AP9" s="227" t="inlineStr">
+      <c r="AP9" s="222" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AQ9" s="228" t="inlineStr">
+      <c r="AQ9" s="223" t="inlineStr">
         <is>
           <t>9</t>
         </is>
@@ -14616,7 +14742,7 @@
           <t>E</t>
         </is>
       </c>
-      <c r="AQ10" s="229" t="inlineStr">
+      <c r="AQ10" s="224" t="inlineStr">
         <is>
           <t>E</t>
         </is>
@@ -22461,6 +22587,14 @@
   </dataValidations>
   <pageMargins left="0.7874015748031497" right="0.5905511811023623" top="0.984251968503937" bottom="0.984251968503937" header="0.5118110236220472" footer="0.5118110236220472"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="2" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -22472,27 +22606,27 @@
   </sheetPr>
   <dimension ref="B1:AQ61"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:I6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="4.625" customWidth="1" style="168" min="1" max="1"/>
-    <col width="9.625" customWidth="1" style="168" min="2" max="43"/>
-    <col width="9" customWidth="1" style="168" min="44" max="58"/>
-    <col width="9" customWidth="1" style="168" min="59" max="16384"/>
+    <col width="4.62890625" customWidth="1" style="168" min="1" max="1"/>
+    <col width="9.62890625" customWidth="1" style="168" min="2" max="43"/>
+    <col width="9" customWidth="1" style="168" min="44" max="62"/>
+    <col width="9" customWidth="1" style="168" min="63" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1" s="173">
+    <row r="1" ht="13" customHeight="1" s="173">
       <c r="B1" s="168" t="inlineStr">
         <is>
           <t>(8) 改良地盤の水平支持力の検討結果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.95" customHeight="1" s="173"/>
-    <row r="3" ht="12.95" customHeight="1" s="173">
+    <row r="2" ht="13" customHeight="1" s="173"/>
+    <row r="3" ht="13" customHeight="1" s="173">
       <c r="C3" s="159" t="inlineStr">
         <is>
           <t>Q(上部地震力）：</t>
@@ -22516,7 +22650,7 @@
       </c>
       <c r="I3" s="728" t="n"/>
     </row>
-    <row r="4" ht="12.95" customHeight="1" s="173">
+    <row r="4" ht="13" customHeight="1" s="173">
       <c r="C4" s="159" t="inlineStr">
         <is>
           <t>Qｆ(下部地震力）：</t>
@@ -22571,7 +22705,7 @@
       <c r="AP4" s="32" t="n"/>
       <c r="AQ4" s="32" t="n"/>
     </row>
-    <row r="5" ht="12.95" customHeight="1" s="173">
+    <row r="5" ht="13" customHeight="1" s="173">
       <c r="C5" s="159" t="inlineStr">
         <is>
           <t>ΣQ（作用地震力）：</t>
@@ -22630,7 +22764,7 @@
       <c r="AP5" s="32" t="n"/>
       <c r="AQ5" s="32" t="n"/>
     </row>
-    <row r="6" ht="12.95" customHeight="1" s="173">
+    <row r="6" ht="13" customHeight="1" s="173">
       <c r="E6" s="32" t="n"/>
       <c r="F6" s="32" t="n"/>
       <c r="G6" s="159" t="inlineStr">
@@ -22682,8 +22816,8 @@
       <c r="AP6" s="32" t="n"/>
       <c r="AQ6" s="32" t="n"/>
     </row>
-    <row r="7" ht="12.95" customHeight="1" s="173"/>
-    <row r="8" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="7" ht="13" customHeight="1" s="173"/>
+    <row r="8" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B8" s="570" t="inlineStr">
         <is>
           <t>基礎符号</t>
@@ -22691,203 +22825,47 @@
       </c>
       <c r="C8" s="547" t="n"/>
       <c r="D8" s="210" t="n"/>
-      <c r="E8" s="188" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="F8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="G8" s="211" t="inlineStr">
-        <is>
-          <t>F1</t>
-        </is>
-      </c>
-      <c r="H8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="I8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="J8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="K8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="L8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="M8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="N8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="O8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="P8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="Q8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="R8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="S8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="T8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="U8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="V8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="W8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="X8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="Y8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="Z8" s="211" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="AA8" s="211" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="AB8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="AC8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AD8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AE8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AF8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AG8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AH8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AI8" s="211" t="inlineStr">
-        <is>
-          <t>F2</t>
-        </is>
-      </c>
-      <c r="AJ8" s="211" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-      <c r="AK8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="AL8" s="211" t="inlineStr">
-        <is>
-          <t>F24</t>
-        </is>
-      </c>
-      <c r="AM8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="AN8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="AO8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="AP8" s="211" t="inlineStr">
-        <is>
-          <t>F23</t>
-        </is>
-      </c>
-      <c r="AQ8" s="220" t="inlineStr">
-        <is>
-          <t>F22</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="12.95" customFormat="1" customHeight="1" s="202">
+      <c r="E8" s="188" t="n"/>
+      <c r="F8" s="211" t="n"/>
+      <c r="G8" s="211" t="n"/>
+      <c r="H8" s="211" t="n"/>
+      <c r="I8" s="211" t="n"/>
+      <c r="J8" s="211" t="n"/>
+      <c r="K8" s="211" t="n"/>
+      <c r="L8" s="211" t="n"/>
+      <c r="M8" s="211" t="n"/>
+      <c r="N8" s="211" t="n"/>
+      <c r="O8" s="211" t="n"/>
+      <c r="P8" s="211" t="n"/>
+      <c r="Q8" s="211" t="n"/>
+      <c r="R8" s="211" t="n"/>
+      <c r="S8" s="211" t="n"/>
+      <c r="T8" s="211" t="n"/>
+      <c r="U8" s="211" t="n"/>
+      <c r="V8" s="211" t="n"/>
+      <c r="W8" s="211" t="n"/>
+      <c r="X8" s="211" t="n"/>
+      <c r="Y8" s="211" t="n"/>
+      <c r="Z8" s="211" t="n"/>
+      <c r="AA8" s="211" t="n"/>
+      <c r="AB8" s="211" t="n"/>
+      <c r="AC8" s="211" t="n"/>
+      <c r="AD8" s="211" t="n"/>
+      <c r="AE8" s="211" t="n"/>
+      <c r="AF8" s="211" t="n"/>
+      <c r="AG8" s="211" t="n"/>
+      <c r="AH8" s="211" t="n"/>
+      <c r="AI8" s="211" t="n"/>
+      <c r="AJ8" s="211" t="n"/>
+      <c r="AK8" s="211" t="n"/>
+      <c r="AL8" s="211" t="n"/>
+      <c r="AM8" s="211" t="n"/>
+      <c r="AN8" s="211" t="n"/>
+      <c r="AO8" s="211" t="n"/>
+      <c r="AP8" s="211" t="n"/>
+      <c r="AQ8" s="220" t="n"/>
+    </row>
+    <row r="9" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B9" s="571" t="inlineStr">
         <is>
           <t>X通り</t>
@@ -22907,191 +22885,179 @@
       </c>
       <c r="G9" s="208" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H9" s="208" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H9" s="208" t="inlineStr">
+      <c r="I9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" s="208" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I9" s="208" t="inlineStr">
+      <c r="K9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="L9" s="208" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J9" s="208" t="inlineStr">
+      <c r="M9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O9" s="208" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K9" s="208" t="inlineStr">
+      <c r="P9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="R9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="U9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="X9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="AC9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF9" s="208" t="n"/>
+      <c r="AG9" s="208" t="n"/>
+      <c r="AH9" s="208" t="n"/>
+      <c r="AI9" s="208" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AM9" s="208" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L9" s="208" t="inlineStr">
+      <c r="AN9" s="208" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M9" s="208" t="inlineStr">
+      <c r="AO9" s="208" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N9" s="208" t="inlineStr">
+      <c r="AP9" s="208" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" s="208" t="inlineStr">
+      <c r="AQ9" s="219" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="V9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Z9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AI9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AJ9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AM9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AN9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AQ9" s="219" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.95" customFormat="1" customHeight="1" s="202">
+    </row>
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B10" s="573" t="inlineStr">
         <is>
           <t>Y通り</t>
@@ -23126,134 +23092,122 @@
       </c>
       <c r="J10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AB10" s="206" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AE10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AF10" s="206" t="n"/>
+      <c r="AG10" s="206" t="n"/>
+      <c r="AH10" s="206" t="n"/>
+      <c r="AI10" s="206" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AC10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AD10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AE10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AF10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="AJ10" s="206" t="inlineStr">
         <is>
           <t>E</t>
@@ -23295,7 +23249,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B11" s="564" t="inlineStr">
         <is>
           <t>改良体に作用する
@@ -23313,124 +23267,118 @@
         </is>
       </c>
       <c r="E11" s="731" t="n">
-        <v>130.1</v>
+        <v>182.7</v>
       </c>
       <c r="F11" s="732" t="n">
-        <v>187.7</v>
+        <v>308.4</v>
       </c>
       <c r="G11" s="732" t="n">
-        <v>85.7</v>
+        <v>36.2</v>
       </c>
       <c r="H11" s="732" t="n">
-        <v>175</v>
+        <v>291.7</v>
       </c>
       <c r="I11" s="732" t="n">
-        <v>183</v>
+        <v>191.8</v>
       </c>
       <c r="J11" s="732" t="n">
-        <v>182.4</v>
+        <v>159.2</v>
       </c>
       <c r="K11" s="204" t="n">
-        <v>134</v>
+        <v>194.4</v>
       </c>
       <c r="L11" s="204" t="n">
-        <v>212.5</v>
+        <v>377.6</v>
       </c>
       <c r="M11" s="204" t="n">
-        <v>214.6</v>
+        <v>353.1</v>
       </c>
       <c r="N11" s="204" t="n">
-        <v>238.8</v>
+        <v>113.6</v>
       </c>
       <c r="O11" s="204" t="n">
-        <v>149.7</v>
+        <v>258.2</v>
       </c>
       <c r="P11" s="204" t="n">
-        <v>187.6</v>
+        <v>144.8</v>
       </c>
       <c r="Q11" s="204" t="n">
-        <v>197.4</v>
+        <v>100.3</v>
       </c>
       <c r="R11" s="204" t="n">
-        <v>171.3</v>
+        <v>307.7</v>
       </c>
       <c r="S11" s="733" t="n">
-        <v>162.5</v>
+        <v>339.6</v>
       </c>
       <c r="T11" s="204" t="n">
-        <v>152.6</v>
+        <v>123</v>
       </c>
       <c r="U11" s="204" t="n">
-        <v>151.1</v>
+        <v>291.6</v>
       </c>
       <c r="V11" s="204" t="n">
-        <v>147</v>
+        <v>303.3</v>
       </c>
       <c r="W11" s="204" t="n">
-        <v>142</v>
+        <v>176.5</v>
       </c>
       <c r="X11" s="204" t="n">
-        <v>153.9</v>
+        <v>320.4</v>
       </c>
       <c r="Y11" s="204" t="n">
-        <v>171.8</v>
+        <v>328.6</v>
       </c>
       <c r="Z11" s="204" t="n">
-        <v>129.5</v>
+        <v>291.8</v>
       </c>
       <c r="AA11" s="204" t="n">
-        <v>140</v>
+        <v>126.5</v>
       </c>
       <c r="AB11" s="204" t="n">
-        <v>128.9</v>
+        <v>127.8</v>
       </c>
       <c r="AC11" s="204" t="n">
-        <v>159.1</v>
+        <v>246.3</v>
       </c>
       <c r="AD11" s="204" t="n">
-        <v>158.2</v>
+        <v>298.4</v>
       </c>
       <c r="AE11" s="204" t="n">
-        <v>137.6</v>
-      </c>
-      <c r="AF11" s="204" t="n">
-        <v>89.59999999999999</v>
-      </c>
-      <c r="AG11" s="204" t="n">
-        <v>122.5</v>
-      </c>
-      <c r="AH11" s="204" t="n">
-        <v>175.3</v>
-      </c>
+        <v>194.8</v>
+      </c>
+      <c r="AF11" s="204" t="n"/>
+      <c r="AG11" s="204" t="n"/>
+      <c r="AH11" s="204" t="n"/>
       <c r="AI11" s="204" t="n">
-        <v>134.9</v>
+        <v>135.2</v>
       </c>
       <c r="AJ11" s="204" t="n">
-        <v>121.8</v>
+        <v>138</v>
       </c>
       <c r="AK11" s="204" t="n">
-        <v>167.3</v>
+        <v>202.5</v>
       </c>
       <c r="AL11" s="204" t="n">
-        <v>165.3</v>
+        <v>208.8</v>
       </c>
       <c r="AM11" s="204" t="n">
-        <v>171.6</v>
+        <v>188.8</v>
       </c>
       <c r="AN11" s="204" t="n">
-        <v>164.3</v>
+        <v>195.6</v>
       </c>
       <c r="AO11" s="204" t="n">
-        <v>140.9</v>
+        <v>157</v>
       </c>
       <c r="AP11" s="204" t="n">
-        <v>245.8</v>
+        <v>248.9</v>
       </c>
       <c r="AQ11" s="219" t="n">
-        <v>140.6</v>
-      </c>
-    </row>
-    <row r="12" ht="12.95" customFormat="1" customHeight="1" s="202">
+        <v>143.2</v>
+      </c>
+    </row>
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B12" s="544" t="n"/>
       <c r="C12" s="164" t="inlineStr">
         <is>
@@ -23488,7 +23436,7 @@
       <c r="AP12" s="204" t="n"/>
       <c r="AQ12" s="219" t="n"/>
     </row>
-    <row r="13" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B13" s="544" t="n"/>
       <c r="C13" s="164" t="inlineStr">
         <is>
@@ -23653,7 +23601,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B14" s="544" t="n"/>
       <c r="C14" s="164" t="inlineStr">
         <is>
@@ -23708,7 +23656,7 @@
       <c r="AP14" s="204" t="n"/>
       <c r="AQ14" s="219" t="n"/>
     </row>
-    <row r="15" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="15" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B15" s="544" t="n"/>
       <c r="C15" s="164" t="inlineStr">
         <is>
@@ -23877,7 +23825,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B16" s="544" t="n"/>
       <c r="C16" s="164" t="n"/>
       <c r="D16" s="165" t="n"/>
@@ -23921,7 +23869,7 @@
       <c r="AP16" s="204" t="n"/>
       <c r="AQ16" s="219" t="n"/>
     </row>
-    <row r="17" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B17" s="544" t="n"/>
       <c r="C17" s="164" t="n"/>
       <c r="D17" s="165" t="n"/>
@@ -23965,7 +23913,7 @@
       <c r="AP17" s="204" t="n"/>
       <c r="AQ17" s="219" t="n"/>
     </row>
-    <row r="18" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B18" s="544" t="n"/>
       <c r="C18" s="202" t="inlineStr">
         <is>
@@ -24095,7 +24043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B19" s="544" t="n"/>
       <c r="C19" s="164" t="inlineStr">
         <is>
@@ -24264,7 +24212,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B20" s="540" t="n"/>
       <c r="C20" s="166" t="inlineStr">
         <is>
@@ -24433,7 +24381,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="12.95" customHeight="1" s="173">
+    <row r="21" ht="13" customHeight="1" s="173">
       <c r="B21" s="564" t="inlineStr">
         <is>
           <t>水平方向
@@ -24565,7 +24513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" ht="12.95" customHeight="1" s="173">
+    <row r="22" ht="13" customHeight="1" s="173">
       <c r="B22" s="544" t="n"/>
       <c r="C22" s="164" t="inlineStr">
         <is>
@@ -24691,7 +24639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="12.95" customHeight="1" s="173">
+    <row r="23" ht="13" customHeight="1" s="173">
       <c r="B23" s="544" t="n"/>
       <c r="C23" s="164" t="inlineStr">
         <is>
@@ -24860,7 +24808,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="12.95" customHeight="1" s="173">
+    <row r="24" ht="13" customHeight="1" s="173">
       <c r="B24" s="544" t="n"/>
       <c r="C24" s="164" t="inlineStr">
         <is>
@@ -24995,7 +24943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="12.95" customHeight="1" s="173">
+    <row r="25" ht="13" customHeight="1" s="173">
       <c r="B25" s="540" t="n"/>
       <c r="C25" s="166" t="inlineStr">
         <is>
@@ -25160,7 +25108,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="12.95" customHeight="1" s="173">
+    <row r="26" ht="13" customHeight="1" s="173">
       <c r="B26" s="564" t="inlineStr">
         <is>
           <t>群杭効果を考慮した
@@ -25295,7 +25243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="12.95" customHeight="1" s="173">
+    <row r="27" ht="13" customHeight="1" s="173">
       <c r="B27" s="544" t="n"/>
       <c r="C27" s="164" t="inlineStr">
         <is>
@@ -25425,7 +25373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="12.95" customHeight="1" s="173">
+    <row r="28" ht="13" customHeight="1" s="173">
       <c r="B28" s="544" t="n"/>
       <c r="C28" s="164" t="inlineStr">
         <is>
@@ -25590,7 +25538,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="12.95" customHeight="1" s="173">
+    <row r="29" ht="13" customHeight="1" s="173">
       <c r="B29" s="544" t="n"/>
       <c r="C29" s="164" t="inlineStr">
         <is>
@@ -25755,7 +25703,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="12.95" customHeight="1" s="173">
+    <row r="30" ht="13" customHeight="1" s="173">
       <c r="B30" s="544" t="n"/>
       <c r="C30" s="164" t="inlineStr">
         <is>
@@ -25924,7 +25872,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="12.95" customHeight="1" s="173">
+    <row r="31" ht="13" customHeight="1" s="173">
       <c r="B31" s="544" t="n"/>
       <c r="C31" s="164" t="inlineStr">
         <is>
@@ -26089,7 +26037,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="12.95" customHeight="1" s="173">
+    <row r="32" ht="13" customHeight="1" s="173">
       <c r="B32" s="544" t="n"/>
       <c r="C32" s="164" t="inlineStr">
         <is>
@@ -26254,7 +26202,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="12.95" customHeight="1" s="173">
+    <row r="33" ht="13" customHeight="1" s="173">
       <c r="B33" s="544" t="n"/>
       <c r="C33" s="164" t="inlineStr">
         <is>
@@ -26419,7 +26367,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="12.95" customHeight="1" s="173">
+    <row r="34" ht="13" customHeight="1" s="173">
       <c r="B34" s="544" t="n"/>
       <c r="C34" s="164" t="inlineStr">
         <is>
@@ -26584,7 +26532,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="12.95" customHeight="1" s="173">
+    <row r="35" ht="13" customHeight="1" s="173">
       <c r="B35" s="544" t="n"/>
       <c r="C35" s="164" t="inlineStr">
         <is>
@@ -26749,7 +26697,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="12.95" customHeight="1" s="173">
+    <row r="36" ht="13" customHeight="1" s="173">
       <c r="B36" s="540" t="n"/>
       <c r="C36" s="166" t="inlineStr">
         <is>
@@ -26914,7 +26862,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="12.95" customHeight="1" s="173">
+    <row r="37" ht="13" customHeight="1" s="173">
       <c r="B37" s="564" t="inlineStr">
         <is>
           <t>曲げモーメントの算定</t>
@@ -27086,7 +27034,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="12.95" customHeight="1" s="173">
+    <row r="38" ht="13" customHeight="1" s="173">
       <c r="B38" s="544" t="n"/>
       <c r="C38" s="164" t="inlineStr">
         <is>
@@ -27255,7 +27203,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="12.95" customHeight="1" s="173">
+    <row r="39" ht="13" customHeight="1" s="173">
       <c r="B39" s="544" t="n"/>
       <c r="C39" s="164" t="inlineStr">
         <is>
@@ -27424,7 +27372,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="12.95" customHeight="1" s="173">
+    <row r="40" ht="13" customHeight="1" s="173">
       <c r="B40" s="544" t="n"/>
       <c r="C40" s="164" t="inlineStr">
         <is>
@@ -27589,7 +27537,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="12.95" customHeight="1" s="173">
+    <row r="41" ht="13" customHeight="1" s="173">
       <c r="B41" s="544" t="n"/>
       <c r="C41" s="164" t="inlineStr">
         <is>
@@ -27758,7 +27706,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="12.95" customHeight="1" s="173">
+    <row r="42" ht="13" customHeight="1" s="173">
       <c r="B42" s="544" t="n"/>
       <c r="C42" s="164" t="inlineStr">
         <is>
@@ -27923,7 +27871,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="12.95" customHeight="1" s="173">
+    <row r="43" ht="13" customHeight="1" s="173">
       <c r="B43" s="544" t="n"/>
       <c r="C43" s="164" t="inlineStr">
         <is>
@@ -28088,7 +28036,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="12.95" customHeight="1" s="173">
+    <row r="44" ht="13" customHeight="1" s="173">
       <c r="B44" s="544" t="n"/>
       <c r="C44" s="164" t="inlineStr">
         <is>
@@ -28253,7 +28201,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="12.95" customHeight="1" s="173">
+    <row r="45" ht="13" customHeight="1" s="173">
       <c r="B45" s="544" t="n"/>
       <c r="C45" s="164" t="inlineStr">
         <is>
@@ -28379,7 +28327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="12.95" customHeight="1" s="173">
+    <row r="46" ht="13" customHeight="1" s="173">
       <c r="B46" s="544" t="n"/>
       <c r="C46" s="164" t="inlineStr">
         <is>
@@ -28548,7 +28496,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="12.95" customHeight="1" s="173">
+    <row r="47" ht="13" customHeight="1" s="173">
       <c r="B47" s="544" t="n"/>
       <c r="C47" s="164" t="inlineStr">
         <is>
@@ -28717,7 +28665,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="12.95" customHeight="1" s="173">
+    <row r="48" ht="13" customHeight="1" s="173">
       <c r="B48" s="540" t="n"/>
       <c r="C48" s="166" t="inlineStr">
         <is>
@@ -28886,7 +28834,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="12.95" customHeight="1" s="173">
+    <row r="49" ht="13" customHeight="1" s="173">
       <c r="B49" s="569" t="inlineStr">
         <is>
           <t>縁応力度の
@@ -29060,7 +29008,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="12.95" customHeight="1" s="173">
+    <row r="50" ht="13" customHeight="1" s="173">
       <c r="B50" s="558" t="n"/>
       <c r="C50" s="164" t="inlineStr">
         <is>
@@ -29229,7 +29177,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="12.95" customHeight="1" s="173">
+    <row r="51" ht="13" customHeight="1" s="173">
       <c r="B51" s="558" t="n"/>
       <c r="C51" s="164" t="inlineStr">
         <is>
@@ -29398,7 +29346,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="12.95" customHeight="1" s="173">
+    <row r="52" ht="13" customHeight="1" s="173">
       <c r="B52" s="558" t="n"/>
       <c r="C52" s="164" t="inlineStr">
         <is>
@@ -29563,7 +29511,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="12.95" customHeight="1" s="173">
+    <row r="53" ht="13" customHeight="1" s="173">
       <c r="B53" s="558" t="n"/>
       <c r="C53" s="164" t="inlineStr">
         <is>
@@ -29732,7 +29680,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="12.95" customHeight="1" s="173">
+    <row r="54" ht="13" customHeight="1" s="173">
       <c r="B54" s="558" t="n"/>
       <c r="C54" s="164" t="inlineStr">
         <is>
@@ -29901,7 +29849,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="12.95" customHeight="1" s="173">
+    <row r="55" ht="13" customHeight="1" s="173">
       <c r="B55" s="559" t="n"/>
       <c r="C55" s="166" t="inlineStr">
         <is>
@@ -30066,7 +30014,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="12.95" customHeight="1" s="173">
+    <row r="56" ht="13" customHeight="1" s="173">
       <c r="B56" s="569" t="inlineStr">
         <is>
           <t>せん断
@@ -30241,7 +30189,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="12.95" customHeight="1" s="173">
+    <row r="57" ht="13" customHeight="1" s="173">
       <c r="B57" s="558" t="n"/>
       <c r="C57" s="164" t="inlineStr">
         <is>
@@ -30410,7 +30358,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="12.95" customHeight="1" s="173">
+    <row r="58" ht="13" customHeight="1" s="173">
       <c r="B58" s="558" t="n"/>
       <c r="C58" s="164" t="inlineStr">
         <is>
@@ -30579,7 +30527,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="12.95" customHeight="1" s="173">
+    <row r="59" ht="13" customHeight="1" s="173">
       <c r="B59" s="558" t="n"/>
       <c r="C59" s="164" t="inlineStr">
         <is>
@@ -30748,7 +30696,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="12.95" customHeight="1" s="173">
+    <row r="60" ht="13" customHeight="1" s="173">
       <c r="B60" s="558" t="n"/>
       <c r="C60" s="164" t="inlineStr">
         <is>
@@ -30917,7 +30865,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="12.95" customHeight="1" s="173">
+    <row r="61" ht="13" customHeight="1" s="173">
       <c r="B61" s="559" t="n"/>
       <c r="C61" s="166" t="inlineStr">
         <is>
@@ -31110,6 +31058,14 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -31125,23 +31081,23 @@
       <selection activeCell="G3" sqref="G3:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="4.625" customWidth="1" style="168" min="1" max="1"/>
-    <col width="9.625" customWidth="1" style="168" min="2" max="19"/>
-    <col width="9" customWidth="1" style="168" min="20" max="49"/>
-    <col width="9" customWidth="1" style="168" min="50" max="16384"/>
+    <col width="4.62890625" customWidth="1" style="168" min="1" max="1"/>
+    <col width="9.62890625" customWidth="1" style="168" min="2" max="19"/>
+    <col width="9" customWidth="1" style="168" min="20" max="53"/>
+    <col width="9" customWidth="1" style="168" min="54" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1" s="173">
+    <row r="1" ht="13" customHeight="1" s="173">
       <c r="B1" s="168" t="inlineStr">
         <is>
           <t>(8) 改良地盤の水平支持力の検討結果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.95" customHeight="1" s="173"/>
-    <row r="3" ht="12.95" customHeight="1" s="173">
+    <row r="2" ht="13" customHeight="1" s="173"/>
+    <row r="3" ht="13" customHeight="1" s="173">
       <c r="C3" s="159" t="inlineStr">
         <is>
           <t>Q(上部地震力）：</t>
@@ -31167,7 +31123,7 @@
       </c>
       <c r="I3" s="728" t="n"/>
     </row>
-    <row r="4" ht="12.95" customHeight="1" s="173">
+    <row r="4" ht="13" customHeight="1" s="173">
       <c r="C4" s="159" t="inlineStr">
         <is>
           <t>Qｆ(下部地震力）：</t>
@@ -31222,7 +31178,7 @@
       <c r="AP4" s="32" t="n"/>
       <c r="AQ4" s="32" t="n"/>
     </row>
-    <row r="5" ht="12.95" customHeight="1" s="173">
+    <row r="5" ht="13" customHeight="1" s="173">
       <c r="C5" s="159" t="inlineStr">
         <is>
           <t>ΣQ（作用地震力）：</t>
@@ -31282,7 +31238,7 @@
       <c r="AP5" s="32" t="n"/>
       <c r="AQ5" s="32" t="n"/>
     </row>
-    <row r="6" ht="12.95" customHeight="1" s="173">
+    <row r="6" ht="13" customHeight="1" s="173">
       <c r="E6" s="32" t="n"/>
       <c r="F6" s="32" t="n"/>
       <c r="G6" s="159" t="inlineStr">
@@ -31334,8 +31290,8 @@
       <c r="AP6" s="32" t="n"/>
       <c r="AQ6" s="32" t="n"/>
     </row>
-    <row r="7" ht="12.95" customHeight="1" s="173"/>
-    <row r="8" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="7" ht="13" customHeight="1" s="173"/>
+    <row r="8" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B8" s="570" t="inlineStr">
         <is>
           <t>基礎符号</t>
@@ -31539,7 +31495,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="9" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B9" s="571" t="inlineStr">
         <is>
           <t>X通り</t>
@@ -31559,191 +31515,191 @@
       </c>
       <c r="G9" s="208" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H9" s="208" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H9" s="208" t="inlineStr">
+      <c r="I9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" s="208" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I9" s="208" t="inlineStr">
+      <c r="K9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="L9" s="208" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J9" s="208" t="inlineStr">
+      <c r="M9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O9" s="208" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K9" s="208" t="inlineStr">
+      <c r="P9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="R9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="U9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="X9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="AC9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF9" s="208" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG9" s="208" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH9" s="208" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AI9" s="208" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AM9" s="208" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L9" s="208" t="inlineStr">
+      <c r="AN9" s="208" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M9" s="208" t="inlineStr">
+      <c r="AO9" s="208" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N9" s="208" t="inlineStr">
+      <c r="AP9" s="208" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" s="208" t="inlineStr">
+      <c r="AQ9" s="164" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="V9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Z9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AI9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AJ9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AM9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AN9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AQ9" s="164" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.95" customFormat="1" customHeight="1" s="202">
+    </row>
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B10" s="573" t="inlineStr">
         <is>
           <t>Y通り</t>
@@ -31778,134 +31734,134 @@
       </c>
       <c r="J10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AB10" s="206" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AE10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AF10" s="206" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AC10" s="206" t="inlineStr">
+      <c r="AG10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AD10" s="206" t="inlineStr">
+      <c r="AH10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AE10" s="206" t="inlineStr">
+      <c r="AI10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AF10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="AJ10" s="206" t="inlineStr">
         <is>
           <t>E</t>
@@ -31947,7 +31903,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B11" s="574" t="inlineStr">
         <is>
           <t>改良体に作用する
@@ -31965,124 +31921,124 @@
         </is>
       </c>
       <c r="E11" s="793" t="n">
-        <v>131.6</v>
+        <v>247.6</v>
       </c>
       <c r="F11" s="794" t="n">
-        <v>189.9</v>
+        <v>270.2</v>
       </c>
       <c r="G11" s="794" t="n">
-        <v>82.2</v>
+        <v>21</v>
       </c>
       <c r="H11" s="794" t="n">
-        <v>174.9</v>
+        <v>331.3</v>
       </c>
       <c r="I11" s="794" t="n">
-        <v>183.5</v>
+        <v>133.4</v>
       </c>
       <c r="J11" s="794" t="n">
-        <v>180.9</v>
+        <v>189.2</v>
       </c>
       <c r="K11" s="216" t="n">
-        <v>214.2</v>
+        <v>232.1</v>
       </c>
       <c r="L11" s="216" t="n">
-        <v>220.9</v>
+        <v>345.7</v>
       </c>
       <c r="M11" s="216" t="n">
-        <v>207.7</v>
+        <v>386.6</v>
       </c>
       <c r="N11" s="216" t="n">
-        <v>156</v>
+        <v>126.1</v>
       </c>
       <c r="O11" s="216" t="n">
-        <v>151.8</v>
+        <v>183.6</v>
       </c>
       <c r="P11" s="216" t="n">
-        <v>187.2</v>
+        <v>198.5</v>
       </c>
       <c r="Q11" s="216" t="n">
-        <v>197.9</v>
+        <v>113.1</v>
       </c>
       <c r="R11" s="216" t="n">
-        <v>171.7</v>
+        <v>280.6</v>
       </c>
       <c r="S11" s="795" t="n">
-        <v>162.3</v>
+        <v>368.9</v>
       </c>
       <c r="T11" s="217" t="n">
-        <v>152.6</v>
+        <v>135.5</v>
       </c>
       <c r="U11" s="217" t="n">
-        <v>151.1</v>
+        <v>210</v>
       </c>
       <c r="V11" s="217" t="n">
-        <v>147</v>
+        <v>360.5</v>
       </c>
       <c r="W11" s="217" t="n">
-        <v>141.9</v>
+        <v>188.7</v>
       </c>
       <c r="X11" s="217" t="n">
-        <v>154</v>
+        <v>281.1</v>
       </c>
       <c r="Y11" s="217" t="n">
-        <v>171.4</v>
+        <v>367.3</v>
       </c>
       <c r="Z11" s="217" t="n">
-        <v>130.1</v>
+        <v>224</v>
       </c>
       <c r="AA11" s="217" t="n">
-        <v>138.9</v>
+        <v>188.3</v>
       </c>
       <c r="AB11" s="217" t="n">
-        <v>129.3</v>
+        <v>112.4</v>
       </c>
       <c r="AC11" s="217" t="n">
-        <v>159</v>
+        <v>248.5</v>
       </c>
       <c r="AD11" s="217" t="n">
-        <v>158.3</v>
+        <v>299.4</v>
       </c>
       <c r="AE11" s="217" t="n">
-        <v>137.6</v>
+        <v>144.8</v>
       </c>
       <c r="AF11" s="217" t="n">
-        <v>175.8</v>
+        <v>173.5</v>
       </c>
       <c r="AG11" s="217" t="n">
-        <v>117.9</v>
+        <v>117.3</v>
       </c>
       <c r="AH11" s="217" t="n">
         <v>92.59999999999999</v>
       </c>
       <c r="AI11" s="217" t="n">
-        <v>136.5</v>
+        <v>137.1</v>
       </c>
       <c r="AJ11" s="217" t="n">
-        <v>122.2</v>
+        <v>138.4</v>
       </c>
       <c r="AK11" s="217" t="n">
-        <v>166.9</v>
+        <v>202</v>
       </c>
       <c r="AL11" s="217" t="n">
-        <v>165.6</v>
+        <v>209.1</v>
       </c>
       <c r="AM11" s="217" t="n">
-        <v>170.5</v>
+        <v>187.4</v>
       </c>
       <c r="AN11" s="217" t="n">
-        <v>168.6</v>
+        <v>202.4</v>
       </c>
       <c r="AO11" s="217" t="n">
-        <v>220.5</v>
+        <v>233</v>
       </c>
       <c r="AP11" s="217" t="n">
-        <v>167.4</v>
+        <v>171.7</v>
       </c>
       <c r="AQ11" s="218" t="n">
-        <v>135.5</v>
-      </c>
-    </row>
-    <row r="12" ht="12.95" customFormat="1" customHeight="1" s="202">
+        <v>138.3</v>
+      </c>
+    </row>
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B12" s="544" t="n"/>
       <c r="C12" s="164" t="inlineStr">
         <is>
@@ -32140,7 +32096,7 @@
       <c r="AP12" s="204" t="n"/>
       <c r="AQ12" s="219" t="n"/>
     </row>
-    <row r="13" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B13" s="544" t="n"/>
       <c r="C13" s="164" t="inlineStr">
         <is>
@@ -32309,7 +32265,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B14" s="544" t="n"/>
       <c r="C14" s="164" t="inlineStr">
         <is>
@@ -32364,7 +32320,7 @@
       <c r="AP14" s="204" t="n"/>
       <c r="AQ14" s="219" t="n"/>
     </row>
-    <row r="15" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="15" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B15" s="544" t="n"/>
       <c r="C15" s="164" t="inlineStr">
         <is>
@@ -32533,7 +32489,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B16" s="544" t="n"/>
       <c r="C16" s="164" t="n"/>
       <c r="D16" s="165" t="n"/>
@@ -32577,7 +32533,7 @@
       <c r="AP16" s="204" t="n"/>
       <c r="AQ16" s="219" t="n"/>
     </row>
-    <row r="17" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B17" s="544" t="n"/>
       <c r="C17" s="164" t="n"/>
       <c r="D17" s="165" t="n"/>
@@ -32621,7 +32577,7 @@
       <c r="AP17" s="204" t="n"/>
       <c r="AQ17" s="219" t="n"/>
     </row>
-    <row r="18" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B18" s="544" t="n"/>
       <c r="C18" s="202" t="inlineStr">
         <is>
@@ -32751,7 +32707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B19" s="544" t="n"/>
       <c r="C19" s="164" t="inlineStr">
         <is>
@@ -32920,7 +32876,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B20" s="540" t="n"/>
       <c r="C20" s="166" t="inlineStr">
         <is>
@@ -33089,7 +33045,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="12.95" customHeight="1" s="173">
+    <row r="21" ht="13" customHeight="1" s="173">
       <c r="B21" s="564" t="inlineStr">
         <is>
           <t>水平方向
@@ -33259,7 +33215,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="12.95" customHeight="1" s="173">
+    <row r="22" ht="13" customHeight="1" s="173">
       <c r="B22" s="544" t="n"/>
       <c r="C22" s="164" t="inlineStr">
         <is>
@@ -33424,7 +33380,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="12.95" customHeight="1" s="173">
+    <row r="23" ht="13" customHeight="1" s="173">
       <c r="B23" s="544" t="n"/>
       <c r="C23" s="164" t="inlineStr">
         <is>
@@ -33593,7 +33549,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="12.95" customHeight="1" s="173">
+    <row r="24" ht="13" customHeight="1" s="173">
       <c r="B24" s="544" t="n"/>
       <c r="C24" s="164" t="inlineStr">
         <is>
@@ -33762,7 +33718,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="12.95" customHeight="1" s="173">
+    <row r="25" ht="13" customHeight="1" s="173">
       <c r="B25" s="540" t="n"/>
       <c r="C25" s="166" t="inlineStr">
         <is>
@@ -33927,7 +33883,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="12.95" customHeight="1" s="173">
+    <row r="26" ht="13" customHeight="1" s="173">
       <c r="B26" s="564" t="inlineStr">
         <is>
           <t>群杭効果を考慮した
@@ -34101,7 +34057,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="12.95" customHeight="1" s="173">
+    <row r="27" ht="13" customHeight="1" s="173">
       <c r="B27" s="544" t="n"/>
       <c r="C27" s="164" t="inlineStr">
         <is>
@@ -34270,7 +34226,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="12.95" customHeight="1" s="173">
+    <row r="28" ht="13" customHeight="1" s="173">
       <c r="B28" s="544" t="n"/>
       <c r="C28" s="164" t="inlineStr">
         <is>
@@ -34435,7 +34391,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="12.95" customHeight="1" s="173">
+    <row r="29" ht="13" customHeight="1" s="173">
       <c r="B29" s="544" t="n"/>
       <c r="C29" s="164" t="inlineStr">
         <is>
@@ -34600,7 +34556,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="12.95" customHeight="1" s="173">
+    <row r="30" ht="13" customHeight="1" s="173">
       <c r="B30" s="544" t="n"/>
       <c r="C30" s="164" t="inlineStr">
         <is>
@@ -34769,7 +34725,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="12.95" customHeight="1" s="173">
+    <row r="31" ht="13" customHeight="1" s="173">
       <c r="B31" s="544" t="n"/>
       <c r="C31" s="164" t="inlineStr">
         <is>
@@ -34934,7 +34890,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="12.95" customHeight="1" s="173">
+    <row r="32" ht="13" customHeight="1" s="173">
       <c r="B32" s="544" t="n"/>
       <c r="C32" s="164" t="inlineStr">
         <is>
@@ -35099,7 +35055,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="12.95" customHeight="1" s="173">
+    <row r="33" ht="13" customHeight="1" s="173">
       <c r="B33" s="544" t="n"/>
       <c r="C33" s="164" t="inlineStr">
         <is>
@@ -35264,7 +35220,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="12.95" customHeight="1" s="173">
+    <row r="34" ht="13" customHeight="1" s="173">
       <c r="B34" s="544" t="n"/>
       <c r="C34" s="164" t="inlineStr">
         <is>
@@ -35429,7 +35385,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="12.95" customHeight="1" s="173">
+    <row r="35" ht="13" customHeight="1" s="173">
       <c r="B35" s="544" t="n"/>
       <c r="C35" s="164" t="inlineStr">
         <is>
@@ -35594,7 +35550,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="12.95" customHeight="1" s="173">
+    <row r="36" ht="13" customHeight="1" s="173">
       <c r="B36" s="540" t="n"/>
       <c r="C36" s="166" t="inlineStr">
         <is>
@@ -35759,7 +35715,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="12.95" customHeight="1" s="173">
+    <row r="37" ht="13" customHeight="1" s="173">
       <c r="B37" s="564" t="inlineStr">
         <is>
           <t>曲げモーメントの算定</t>
@@ -35932,7 +35888,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="12.95" customHeight="1" s="173">
+    <row r="38" ht="13" customHeight="1" s="173">
       <c r="B38" s="544" t="n"/>
       <c r="C38" s="164" t="inlineStr">
         <is>
@@ -36101,7 +36057,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="12.95" customHeight="1" s="173">
+    <row r="39" ht="13" customHeight="1" s="173">
       <c r="B39" s="544" t="n"/>
       <c r="C39" s="164" t="inlineStr">
         <is>
@@ -36270,7 +36226,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="12.95" customHeight="1" s="173">
+    <row r="40" ht="13" customHeight="1" s="173">
       <c r="B40" s="544" t="n"/>
       <c r="C40" s="164" t="inlineStr">
         <is>
@@ -36435,7 +36391,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="12.95" customHeight="1" s="173">
+    <row r="41" ht="13" customHeight="1" s="173">
       <c r="B41" s="544" t="n"/>
       <c r="C41" s="164" t="inlineStr">
         <is>
@@ -36604,7 +36560,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="12.95" customHeight="1" s="173">
+    <row r="42" ht="13" customHeight="1" s="173">
       <c r="B42" s="544" t="n"/>
       <c r="C42" s="164" t="inlineStr">
         <is>
@@ -36769,7 +36725,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="12.95" customHeight="1" s="173">
+    <row r="43" ht="13" customHeight="1" s="173">
       <c r="B43" s="544" t="n"/>
       <c r="C43" s="164" t="inlineStr">
         <is>
@@ -36934,7 +36890,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="12.95" customHeight="1" s="173">
+    <row r="44" ht="13" customHeight="1" s="173">
       <c r="B44" s="544" t="n"/>
       <c r="C44" s="164" t="inlineStr">
         <is>
@@ -37099,7 +37055,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="12.95" customHeight="1" s="173">
+    <row r="45" ht="13" customHeight="1" s="173">
       <c r="B45" s="544" t="n"/>
       <c r="C45" s="164" t="inlineStr">
         <is>
@@ -37225,7 +37181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="12.95" customHeight="1" s="173">
+    <row r="46" ht="13" customHeight="1" s="173">
       <c r="B46" s="544" t="n"/>
       <c r="C46" s="164" t="inlineStr">
         <is>
@@ -37394,7 +37350,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="12.95" customHeight="1" s="173">
+    <row r="47" ht="13" customHeight="1" s="173">
       <c r="B47" s="544" t="n"/>
       <c r="C47" s="164" t="inlineStr">
         <is>
@@ -37563,7 +37519,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="12.95" customHeight="1" s="173">
+    <row r="48" ht="13" customHeight="1" s="173">
       <c r="B48" s="540" t="n"/>
       <c r="C48" s="166" t="inlineStr">
         <is>
@@ -37732,7 +37688,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="12.95" customHeight="1" s="173">
+    <row r="49" ht="13" customHeight="1" s="173">
       <c r="B49" s="569" t="inlineStr">
         <is>
           <t>縁応力度の
@@ -37906,7 +37862,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="12.95" customHeight="1" s="173">
+    <row r="50" ht="13" customHeight="1" s="173">
       <c r="B50" s="558" t="n"/>
       <c r="C50" s="164" t="inlineStr">
         <is>
@@ -38075,7 +38031,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="12.95" customHeight="1" s="173">
+    <row r="51" ht="13" customHeight="1" s="173">
       <c r="B51" s="558" t="n"/>
       <c r="C51" s="164" t="inlineStr">
         <is>
@@ -38244,7 +38200,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="12.95" customHeight="1" s="173">
+    <row r="52" ht="13" customHeight="1" s="173">
       <c r="B52" s="558" t="n"/>
       <c r="C52" s="164" t="inlineStr">
         <is>
@@ -38409,7 +38365,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="12.95" customHeight="1" s="173">
+    <row r="53" ht="13" customHeight="1" s="173">
       <c r="B53" s="558" t="n"/>
       <c r="C53" s="164" t="inlineStr">
         <is>
@@ -38578,7 +38534,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="12.95" customHeight="1" s="173">
+    <row r="54" ht="13" customHeight="1" s="173">
       <c r="B54" s="558" t="n"/>
       <c r="C54" s="164" t="inlineStr">
         <is>
@@ -38747,7 +38703,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="12.95" customHeight="1" s="173">
+    <row r="55" ht="13" customHeight="1" s="173">
       <c r="B55" s="559" t="n"/>
       <c r="C55" s="166" t="inlineStr">
         <is>
@@ -38912,7 +38868,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="12.95" customHeight="1" s="173">
+    <row r="56" ht="13" customHeight="1" s="173">
       <c r="B56" s="569" t="inlineStr">
         <is>
           <t>せん断
@@ -39087,7 +39043,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="12.95" customHeight="1" s="173">
+    <row r="57" ht="13" customHeight="1" s="173">
       <c r="B57" s="558" t="n"/>
       <c r="C57" s="164" t="inlineStr">
         <is>
@@ -39256,7 +39212,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="12.95" customHeight="1" s="173">
+    <row r="58" ht="13" customHeight="1" s="173">
       <c r="B58" s="558" t="n"/>
       <c r="C58" s="164" t="inlineStr">
         <is>
@@ -39425,7 +39381,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="12.95" customHeight="1" s="173">
+    <row r="59" ht="13" customHeight="1" s="173">
       <c r="B59" s="558" t="n"/>
       <c r="C59" s="164" t="inlineStr">
         <is>
@@ -39594,7 +39550,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="12.95" customHeight="1" s="173">
+    <row r="60" ht="13" customHeight="1" s="173">
       <c r="B60" s="558" t="n"/>
       <c r="C60" s="164" t="inlineStr">
         <is>
@@ -39763,7 +39719,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="12.95" customHeight="1" s="173">
+    <row r="61" ht="13" customHeight="1" s="173">
       <c r="B61" s="559" t="n"/>
       <c r="C61" s="166" t="inlineStr">
         <is>
@@ -39956,6 +39912,14 @@
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -39971,23 +39935,23 @@
       <selection activeCell="G3" sqref="G3:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="4.625" customWidth="1" style="168" min="1" max="1"/>
-    <col width="9.625" customWidth="1" style="168" min="2" max="19"/>
-    <col width="9" customWidth="1" style="168" min="20" max="49"/>
-    <col width="9" customWidth="1" style="168" min="50" max="16384"/>
+    <col width="4.62890625" customWidth="1" style="168" min="1" max="1"/>
+    <col width="9.62890625" customWidth="1" style="168" min="2" max="19"/>
+    <col width="9" customWidth="1" style="168" min="20" max="53"/>
+    <col width="9" customWidth="1" style="168" min="54" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1" s="173">
+    <row r="1" ht="13" customHeight="1" s="173">
       <c r="B1" s="168" t="inlineStr">
         <is>
           <t>(8) 改良地盤の水平支持力の検討結果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.95" customHeight="1" s="173"/>
-    <row r="3" ht="12.95" customHeight="1" s="173">
+    <row r="2" ht="13" customHeight="1" s="173"/>
+    <row r="3" ht="13" customHeight="1" s="173">
       <c r="C3" s="159" t="inlineStr">
         <is>
           <t>Q(上部地震力）：</t>
@@ -40013,7 +39977,7 @@
       </c>
       <c r="I3" s="728" t="n"/>
     </row>
-    <row r="4" ht="12.95" customHeight="1" s="173">
+    <row r="4" ht="13" customHeight="1" s="173">
       <c r="C4" s="159" t="inlineStr">
         <is>
           <t>Qｆ(下部地震力）：</t>
@@ -40068,7 +40032,7 @@
       <c r="AP4" s="32" t="n"/>
       <c r="AQ4" s="32" t="n"/>
     </row>
-    <row r="5" ht="12.95" customHeight="1" s="173">
+    <row r="5" ht="13" customHeight="1" s="173">
       <c r="C5" s="159" t="inlineStr">
         <is>
           <t>ΣQ（作用地震力）：</t>
@@ -40128,7 +40092,7 @@
       <c r="AP5" s="32" t="n"/>
       <c r="AQ5" s="32" t="n"/>
     </row>
-    <row r="6" ht="12.95" customHeight="1" s="173">
+    <row r="6" ht="13" customHeight="1" s="173">
       <c r="E6" s="32" t="n"/>
       <c r="F6" s="32" t="n"/>
       <c r="G6" s="159" t="inlineStr">
@@ -40180,8 +40144,8 @@
       <c r="AP6" s="32" t="n"/>
       <c r="AQ6" s="32" t="n"/>
     </row>
-    <row r="7" ht="12.95" customHeight="1" s="173"/>
-    <row r="8" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="7" ht="13" customHeight="1" s="173"/>
+    <row r="8" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B8" s="570" t="inlineStr">
         <is>
           <t>基礎符号</t>
@@ -40385,7 +40349,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="9" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B9" s="571" t="inlineStr">
         <is>
           <t>X通り</t>
@@ -40405,191 +40369,191 @@
       </c>
       <c r="G9" s="208" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H9" s="208" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H9" s="208" t="inlineStr">
+      <c r="I9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" s="208" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I9" s="208" t="inlineStr">
+      <c r="K9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="L9" s="208" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J9" s="208" t="inlineStr">
+      <c r="M9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O9" s="208" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K9" s="208" t="inlineStr">
+      <c r="P9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="R9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="U9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="X9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="AC9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF9" s="208" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG9" s="208" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH9" s="208" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AI9" s="208" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AM9" s="208" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L9" s="208" t="inlineStr">
+      <c r="AN9" s="208" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M9" s="208" t="inlineStr">
+      <c r="AO9" s="208" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N9" s="208" t="inlineStr">
+      <c r="AP9" s="208" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" s="208" t="inlineStr">
+      <c r="AQ9" s="164" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="V9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Z9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AI9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AJ9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AM9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AN9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AQ9" s="164" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.95" customFormat="1" customHeight="1" s="202">
+    </row>
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B10" s="573" t="inlineStr">
         <is>
           <t>Y通り</t>
@@ -40624,134 +40588,134 @@
       </c>
       <c r="J10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AB10" s="206" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AE10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AF10" s="206" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AC10" s="206" t="inlineStr">
+      <c r="AG10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AD10" s="206" t="inlineStr">
+      <c r="AH10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AE10" s="206" t="inlineStr">
+      <c r="AI10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AF10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="AJ10" s="206" t="inlineStr">
         <is>
           <t>E</t>
@@ -40793,7 +40757,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B11" s="574" t="inlineStr">
         <is>
           <t>改良体に作用する
@@ -40811,124 +40775,124 @@
         </is>
       </c>
       <c r="E11" s="793" t="n">
+        <v>176</v>
+      </c>
+      <c r="F11" s="794" t="n">
+        <v>250.4</v>
+      </c>
+      <c r="G11" s="794" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="H11" s="794" t="n">
+        <v>250.1</v>
+      </c>
+      <c r="I11" s="794" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="J11" s="794" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="K11" s="216" t="n">
+        <v>211.3</v>
+      </c>
+      <c r="L11" s="216" t="n">
+        <v>362.9</v>
+      </c>
+      <c r="M11" s="216" t="n">
+        <v>396.1</v>
+      </c>
+      <c r="N11" s="216" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="O11" s="216" t="n">
+        <v>236.5</v>
+      </c>
+      <c r="P11" s="216" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="Q11" s="216" t="n">
+        <v>106.4</v>
+      </c>
+      <c r="R11" s="216" t="n">
+        <v>315.7</v>
+      </c>
+      <c r="S11" s="795" t="n">
+        <v>370.8</v>
+      </c>
+      <c r="T11" s="217" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="U11" s="217" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="V11" s="217" t="n">
+        <v>321.9</v>
+      </c>
+      <c r="W11" s="217" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="X11" s="217" t="n">
+        <v>250</v>
+      </c>
+      <c r="Y11" s="217" t="n">
+        <v>298.7</v>
+      </c>
+      <c r="Z11" s="217" t="n">
+        <v>235.4</v>
+      </c>
+      <c r="AA11" s="217" t="n">
+        <v>199.3</v>
+      </c>
+      <c r="AB11" s="217" t="n">
+        <v>119.9</v>
+      </c>
+      <c r="AC11" s="217" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="AD11" s="217" t="n">
+        <v>367.7</v>
+      </c>
+      <c r="AE11" s="217" t="n">
+        <v>216.8</v>
+      </c>
+      <c r="AF11" s="217" t="n">
         <v>129.3</v>
       </c>
-      <c r="F11" s="794" t="n">
-        <v>187.4</v>
-      </c>
-      <c r="G11" s="794" t="n">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="H11" s="794" t="n">
-        <v>177.8</v>
-      </c>
-      <c r="I11" s="794" t="n">
-        <v>184.5</v>
-      </c>
-      <c r="J11" s="794" t="n">
-        <v>181.5</v>
-      </c>
-      <c r="K11" s="216" t="n">
-        <v>175.4</v>
-      </c>
-      <c r="L11" s="216" t="n">
-        <v>216.3</v>
-      </c>
-      <c r="M11" s="216" t="n">
-        <v>210.3</v>
-      </c>
-      <c r="N11" s="216" t="n">
-        <v>194.9</v>
-      </c>
-      <c r="O11" s="216" t="n">
-        <v>151.2</v>
-      </c>
-      <c r="P11" s="216" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="Q11" s="216" t="n">
-        <v>146.7</v>
-      </c>
-      <c r="R11" s="216" t="n">
-        <v>168.6</v>
-      </c>
-      <c r="S11" s="795" t="n">
-        <v>161.9</v>
-      </c>
-      <c r="T11" s="217" t="n">
-        <v>152</v>
-      </c>
-      <c r="U11" s="217" t="n">
-        <v>150.5</v>
-      </c>
-      <c r="V11" s="217" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="W11" s="217" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="X11" s="217" t="n">
-        <v>153.6</v>
-      </c>
-      <c r="Y11" s="217" t="n">
-        <v>168.2</v>
-      </c>
-      <c r="Z11" s="217" t="n">
-        <v>185</v>
-      </c>
-      <c r="AA11" s="217" t="n">
+      <c r="AG11" s="217" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="AH11" s="217" t="n">
+        <v>135.9</v>
+      </c>
+      <c r="AI11" s="217" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="AJ11" s="217" t="n">
+        <v>137.6</v>
+      </c>
+      <c r="AK11" s="217" t="n">
+        <v>202.9</v>
+      </c>
+      <c r="AL11" s="217" t="n">
+        <v>209.6</v>
+      </c>
+      <c r="AM11" s="217" t="n">
         <v>188.7</v>
       </c>
-      <c r="AB11" s="217" t="n">
-        <v>134.3</v>
-      </c>
-      <c r="AC11" s="217" t="n">
-        <v>159.7</v>
-      </c>
-      <c r="AD11" s="217" t="n">
-        <v>158.9</v>
-      </c>
-      <c r="AE11" s="217" t="n">
-        <v>138.1</v>
-      </c>
-      <c r="AF11" s="217" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="AG11" s="217" t="n">
-        <v>120.5</v>
-      </c>
-      <c r="AH11" s="217" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="AI11" s="217" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="AJ11" s="217" t="n">
-        <v>121.5</v>
-      </c>
-      <c r="AK11" s="217" t="n">
-        <v>167.6</v>
-      </c>
-      <c r="AL11" s="217" t="n">
-        <v>166.1</v>
-      </c>
-      <c r="AM11" s="217" t="n">
-        <v>171.7</v>
-      </c>
       <c r="AN11" s="217" t="n">
-        <v>167</v>
+        <v>199.6</v>
       </c>
       <c r="AO11" s="217" t="n">
-        <v>179.3</v>
+        <v>193.8</v>
       </c>
       <c r="AP11" s="217" t="n">
-        <v>209.6</v>
+        <v>213.2</v>
       </c>
       <c r="AQ11" s="218" t="n">
-        <v>137.8</v>
-      </c>
-    </row>
-    <row r="12" ht="12.95" customFormat="1" customHeight="1" s="202">
+        <v>140.4</v>
+      </c>
+    </row>
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B12" s="544" t="n"/>
       <c r="C12" s="164" t="inlineStr">
         <is>
@@ -40986,7 +40950,7 @@
       <c r="AP12" s="204" t="n"/>
       <c r="AQ12" s="219" t="n"/>
     </row>
-    <row r="13" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B13" s="544" t="n"/>
       <c r="C13" s="164" t="inlineStr">
         <is>
@@ -41155,7 +41119,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B14" s="544" t="n"/>
       <c r="C14" s="164" t="inlineStr">
         <is>
@@ -41210,7 +41174,7 @@
       <c r="AP14" s="204" t="n"/>
       <c r="AQ14" s="219" t="n"/>
     </row>
-    <row r="15" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="15" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B15" s="544" t="n"/>
       <c r="C15" s="164" t="inlineStr">
         <is>
@@ -41379,7 +41343,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B16" s="544" t="n"/>
       <c r="C16" s="164" t="n"/>
       <c r="D16" s="165" t="n"/>
@@ -41423,7 +41387,7 @@
       <c r="AP16" s="204" t="n"/>
       <c r="AQ16" s="219" t="n"/>
     </row>
-    <row r="17" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B17" s="544" t="n"/>
       <c r="C17" s="164" t="n"/>
       <c r="D17" s="165" t="n"/>
@@ -41467,7 +41431,7 @@
       <c r="AP17" s="204" t="n"/>
       <c r="AQ17" s="219" t="n"/>
     </row>
-    <row r="18" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B18" s="544" t="n"/>
       <c r="C18" s="202" t="inlineStr">
         <is>
@@ -41597,7 +41561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B19" s="544" t="n"/>
       <c r="C19" s="164" t="inlineStr">
         <is>
@@ -41766,7 +41730,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B20" s="540" t="n"/>
       <c r="C20" s="166" t="inlineStr">
         <is>
@@ -41935,7 +41899,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="12.95" customHeight="1" s="173">
+    <row r="21" ht="13" customHeight="1" s="173">
       <c r="B21" s="564" t="inlineStr">
         <is>
           <t>水平方向
@@ -42105,7 +42069,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="12.95" customHeight="1" s="173">
+    <row r="22" ht="13" customHeight="1" s="173">
       <c r="B22" s="544" t="n"/>
       <c r="C22" s="164" t="inlineStr">
         <is>
@@ -42270,7 +42234,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="12.95" customHeight="1" s="173">
+    <row r="23" ht="13" customHeight="1" s="173">
       <c r="B23" s="544" t="n"/>
       <c r="C23" s="164" t="inlineStr">
         <is>
@@ -42439,7 +42403,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="12.95" customHeight="1" s="173">
+    <row r="24" ht="13" customHeight="1" s="173">
       <c r="B24" s="544" t="n"/>
       <c r="C24" s="164" t="inlineStr">
         <is>
@@ -42608,7 +42572,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="12.95" customHeight="1" s="173">
+    <row r="25" ht="13" customHeight="1" s="173">
       <c r="B25" s="540" t="n"/>
       <c r="C25" s="166" t="inlineStr">
         <is>
@@ -42773,7 +42737,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="12.95" customHeight="1" s="173">
+    <row r="26" ht="13" customHeight="1" s="173">
       <c r="B26" s="564" t="inlineStr">
         <is>
           <t>群杭効果を考慮した
@@ -42947,7 +42911,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="12.95" customHeight="1" s="173">
+    <row r="27" ht="13" customHeight="1" s="173">
       <c r="B27" s="544" t="n"/>
       <c r="C27" s="164" t="inlineStr">
         <is>
@@ -43116,7 +43080,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="12.95" customHeight="1" s="173">
+    <row r="28" ht="13" customHeight="1" s="173">
       <c r="B28" s="544" t="n"/>
       <c r="C28" s="164" t="inlineStr">
         <is>
@@ -43281,7 +43245,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="12.95" customHeight="1" s="173">
+    <row r="29" ht="13" customHeight="1" s="173">
       <c r="B29" s="544" t="n"/>
       <c r="C29" s="164" t="inlineStr">
         <is>
@@ -43446,7 +43410,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="12.95" customHeight="1" s="173">
+    <row r="30" ht="13" customHeight="1" s="173">
       <c r="B30" s="544" t="n"/>
       <c r="C30" s="164" t="inlineStr">
         <is>
@@ -43615,7 +43579,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="12.95" customHeight="1" s="173">
+    <row r="31" ht="13" customHeight="1" s="173">
       <c r="B31" s="544" t="n"/>
       <c r="C31" s="164" t="inlineStr">
         <is>
@@ -43780,7 +43744,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="12.95" customHeight="1" s="173">
+    <row r="32" ht="13" customHeight="1" s="173">
       <c r="B32" s="544" t="n"/>
       <c r="C32" s="164" t="inlineStr">
         <is>
@@ -43945,7 +43909,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="12.95" customHeight="1" s="173">
+    <row r="33" ht="13" customHeight="1" s="173">
       <c r="B33" s="544" t="n"/>
       <c r="C33" s="164" t="inlineStr">
         <is>
@@ -44110,7 +44074,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="12.95" customHeight="1" s="173">
+    <row r="34" ht="13" customHeight="1" s="173">
       <c r="B34" s="544" t="n"/>
       <c r="C34" s="164" t="inlineStr">
         <is>
@@ -44275,7 +44239,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="12.95" customHeight="1" s="173">
+    <row r="35" ht="13" customHeight="1" s="173">
       <c r="B35" s="544" t="n"/>
       <c r="C35" s="164" t="inlineStr">
         <is>
@@ -44440,7 +44404,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="12.95" customHeight="1" s="173">
+    <row r="36" ht="13" customHeight="1" s="173">
       <c r="B36" s="540" t="n"/>
       <c r="C36" s="166" t="inlineStr">
         <is>
@@ -44605,7 +44569,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="12.95" customHeight="1" s="173">
+    <row r="37" ht="13" customHeight="1" s="173">
       <c r="B37" s="564" t="inlineStr">
         <is>
           <t>曲げモーメントの算定</t>
@@ -44778,7 +44742,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="12.95" customHeight="1" s="173">
+    <row r="38" ht="13" customHeight="1" s="173">
       <c r="B38" s="544" t="n"/>
       <c r="C38" s="164" t="inlineStr">
         <is>
@@ -44947,7 +44911,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="12.95" customHeight="1" s="173">
+    <row r="39" ht="13" customHeight="1" s="173">
       <c r="B39" s="544" t="n"/>
       <c r="C39" s="164" t="inlineStr">
         <is>
@@ -45116,7 +45080,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="12.95" customHeight="1" s="173">
+    <row r="40" ht="13" customHeight="1" s="173">
       <c r="B40" s="544" t="n"/>
       <c r="C40" s="164" t="inlineStr">
         <is>
@@ -45281,7 +45245,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="12.95" customHeight="1" s="173">
+    <row r="41" ht="13" customHeight="1" s="173">
       <c r="B41" s="544" t="n"/>
       <c r="C41" s="164" t="inlineStr">
         <is>
@@ -45450,7 +45414,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="12.95" customHeight="1" s="173">
+    <row r="42" ht="13" customHeight="1" s="173">
       <c r="B42" s="544" t="n"/>
       <c r="C42" s="164" t="inlineStr">
         <is>
@@ -45615,7 +45579,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="12.95" customHeight="1" s="173">
+    <row r="43" ht="13" customHeight="1" s="173">
       <c r="B43" s="544" t="n"/>
       <c r="C43" s="164" t="inlineStr">
         <is>
@@ -45780,7 +45744,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="12.95" customHeight="1" s="173">
+    <row r="44" ht="13" customHeight="1" s="173">
       <c r="B44" s="544" t="n"/>
       <c r="C44" s="164" t="inlineStr">
         <is>
@@ -45945,7 +45909,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="12.95" customHeight="1" s="173">
+    <row r="45" ht="13" customHeight="1" s="173">
       <c r="B45" s="544" t="n"/>
       <c r="C45" s="164" t="inlineStr">
         <is>
@@ -46071,7 +46035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="12.95" customHeight="1" s="173">
+    <row r="46" ht="13" customHeight="1" s="173">
       <c r="B46" s="544" t="n"/>
       <c r="C46" s="164" t="inlineStr">
         <is>
@@ -46240,7 +46204,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="12.95" customHeight="1" s="173">
+    <row r="47" ht="13" customHeight="1" s="173">
       <c r="B47" s="544" t="n"/>
       <c r="C47" s="164" t="inlineStr">
         <is>
@@ -46409,7 +46373,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="12.95" customHeight="1" s="173">
+    <row r="48" ht="13" customHeight="1" s="173">
       <c r="B48" s="540" t="n"/>
       <c r="C48" s="166" t="inlineStr">
         <is>
@@ -46578,7 +46542,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="12.95" customHeight="1" s="173">
+    <row r="49" ht="13" customHeight="1" s="173">
       <c r="B49" s="569" t="inlineStr">
         <is>
           <t>縁応力度の
@@ -46752,7 +46716,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="12.95" customHeight="1" s="173">
+    <row r="50" ht="13" customHeight="1" s="173">
       <c r="B50" s="558" t="n"/>
       <c r="C50" s="164" t="inlineStr">
         <is>
@@ -46921,7 +46885,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="12.95" customHeight="1" s="173">
+    <row r="51" ht="13" customHeight="1" s="173">
       <c r="B51" s="558" t="n"/>
       <c r="C51" s="164" t="inlineStr">
         <is>
@@ -47090,7 +47054,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="12.95" customHeight="1" s="173">
+    <row r="52" ht="13" customHeight="1" s="173">
       <c r="B52" s="558" t="n"/>
       <c r="C52" s="164" t="inlineStr">
         <is>
@@ -47255,7 +47219,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="12.95" customHeight="1" s="173">
+    <row r="53" ht="13" customHeight="1" s="173">
       <c r="B53" s="558" t="n"/>
       <c r="C53" s="164" t="inlineStr">
         <is>
@@ -47424,7 +47388,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="12.95" customHeight="1" s="173">
+    <row r="54" ht="13" customHeight="1" s="173">
       <c r="B54" s="558" t="n"/>
       <c r="C54" s="164" t="inlineStr">
         <is>
@@ -47593,7 +47557,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="12.95" customHeight="1" s="173">
+    <row r="55" ht="13" customHeight="1" s="173">
       <c r="B55" s="559" t="n"/>
       <c r="C55" s="166" t="inlineStr">
         <is>
@@ -47758,7 +47722,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="12.95" customHeight="1" s="173">
+    <row r="56" ht="13" customHeight="1" s="173">
       <c r="B56" s="569" t="inlineStr">
         <is>
           <t>せん断
@@ -47933,7 +47897,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="12.95" customHeight="1" s="173">
+    <row r="57" ht="13" customHeight="1" s="173">
       <c r="B57" s="558" t="n"/>
       <c r="C57" s="164" t="inlineStr">
         <is>
@@ -48102,7 +48066,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="12.95" customHeight="1" s="173">
+    <row r="58" ht="13" customHeight="1" s="173">
       <c r="B58" s="558" t="n"/>
       <c r="C58" s="164" t="inlineStr">
         <is>
@@ -48271,7 +48235,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="12.95" customHeight="1" s="173">
+    <row r="59" ht="13" customHeight="1" s="173">
       <c r="B59" s="558" t="n"/>
       <c r="C59" s="164" t="inlineStr">
         <is>
@@ -48440,7 +48404,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="12.95" customHeight="1" s="173">
+    <row r="60" ht="13" customHeight="1" s="173">
       <c r="B60" s="558" t="n"/>
       <c r="C60" s="164" t="inlineStr">
         <is>
@@ -48609,7 +48573,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="12.95" customHeight="1" s="173">
+    <row r="61" ht="13" customHeight="1" s="173">
       <c r="B61" s="559" t="n"/>
       <c r="C61" s="166" t="inlineStr">
         <is>
@@ -48802,6 +48766,14 @@
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -48817,23 +48789,23 @@
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="4.625" customWidth="1" style="168" min="1" max="1"/>
-    <col width="9.625" customWidth="1" style="168" min="2" max="19"/>
-    <col width="9" customWidth="1" style="168" min="20" max="49"/>
-    <col width="9" customWidth="1" style="168" min="50" max="16384"/>
+    <col width="4.62890625" customWidth="1" style="168" min="1" max="1"/>
+    <col width="9.62890625" customWidth="1" style="168" min="2" max="19"/>
+    <col width="9" customWidth="1" style="168" min="20" max="53"/>
+    <col width="9" customWidth="1" style="168" min="54" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.95" customHeight="1" s="173">
+    <row r="1" ht="13" customHeight="1" s="173">
       <c r="B1" s="168" t="inlineStr">
         <is>
           <t>(8) 改良地盤の水平支持力の検討結果</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.95" customHeight="1" s="173"/>
-    <row r="3" ht="12.95" customHeight="1" s="173">
+    <row r="2" ht="13" customHeight="1" s="173"/>
+    <row r="3" ht="13" customHeight="1" s="173">
       <c r="C3" s="159" t="inlineStr">
         <is>
           <t>Q(上部地震力）：</t>
@@ -48859,7 +48831,7 @@
       </c>
       <c r="I3" s="728" t="n"/>
     </row>
-    <row r="4" ht="12.95" customHeight="1" s="173">
+    <row r="4" ht="13" customHeight="1" s="173">
       <c r="C4" s="159" t="inlineStr">
         <is>
           <t>Qｆ(下部地震力）：</t>
@@ -48914,7 +48886,7 @@
       <c r="AP4" s="32" t="n"/>
       <c r="AQ4" s="32" t="n"/>
     </row>
-    <row r="5" ht="12.95" customHeight="1" s="173">
+    <row r="5" ht="13" customHeight="1" s="173">
       <c r="C5" s="159" t="inlineStr">
         <is>
           <t>ΣQ（作用地震力）：</t>
@@ -48974,7 +48946,7 @@
       <c r="AP5" s="32" t="n"/>
       <c r="AQ5" s="32" t="n"/>
     </row>
-    <row r="6" ht="12.95" customHeight="1" s="173">
+    <row r="6" ht="13" customHeight="1" s="173">
       <c r="E6" s="32" t="n"/>
       <c r="F6" s="32" t="n"/>
       <c r="G6" s="159" t="inlineStr">
@@ -49026,8 +48998,8 @@
       <c r="AP6" s="32" t="n"/>
       <c r="AQ6" s="32" t="n"/>
     </row>
-    <row r="7" ht="12.95" customHeight="1" s="173"/>
-    <row r="8" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="7" ht="13" customHeight="1" s="173"/>
+    <row r="8" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B8" s="570" t="inlineStr">
         <is>
           <t>基礎符号</t>
@@ -49231,7 +49203,7 @@
         </is>
       </c>
     </row>
-    <row r="9" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="9" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B9" s="571" t="inlineStr">
         <is>
           <t>X通り</t>
@@ -49251,191 +49223,191 @@
       </c>
       <c r="G9" s="208" t="inlineStr">
         <is>
+          <t>2A</t>
+        </is>
+      </c>
+      <c r="H9" s="208" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H9" s="208" t="inlineStr">
+      <c r="I9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J9" s="208" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="I9" s="208" t="inlineStr">
+      <c r="K9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="L9" s="208" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J9" s="208" t="inlineStr">
+      <c r="M9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="O9" s="208" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K9" s="208" t="inlineStr">
+      <c r="P9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Q9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="R9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T9" s="208" t="inlineStr">
+        <is>
+          <t>3A</t>
+        </is>
+      </c>
+      <c r="U9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="V9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="X9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AA9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB9" s="208" t="inlineStr">
+        <is>
+          <t>1A</t>
+        </is>
+      </c>
+      <c r="AC9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AD9" s="208" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AE9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF9" s="208" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AG9" s="208" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AH9" s="208" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="AI9" s="208" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AJ9" s="208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AK9" s="208" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AL9" s="208" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AM9" s="208" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="L9" s="208" t="inlineStr">
+      <c r="AN9" s="208" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M9" s="208" t="inlineStr">
+      <c r="AO9" s="208" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N9" s="208" t="inlineStr">
+      <c r="AP9" s="208" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O9" s="208" t="inlineStr">
+      <c r="AQ9" s="164" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="R9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="S9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="U9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="V9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="X9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="Y9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="Z9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AB9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AF9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AG9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AH9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AI9" s="208" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AJ9" s="208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AK9" s="208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL9" s="208" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AM9" s="208" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AN9" s="208" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO9" s="208" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AP9" s="208" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AQ9" s="164" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="12.95" customFormat="1" customHeight="1" s="202">
+    </row>
+    <row r="10" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B10" s="573" t="inlineStr">
         <is>
           <t>Y通り</t>
@@ -49470,134 +49442,134 @@
       </c>
       <c r="J10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="K10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="M10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="N10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="O10" s="206" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="P10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="Q10" s="206" t="inlineStr">
         <is>
-          <t>b2</t>
+          <t>D</t>
         </is>
       </c>
       <c r="R10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="S10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="T10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="U10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="W10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="X10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Y10" s="206" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>E</t>
         </is>
       </c>
       <c r="Z10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>E</t>
         </is>
       </c>
       <c r="AA10" s="206" t="inlineStr">
         <is>
-          <t>c1</t>
+          <t>F</t>
         </is>
       </c>
       <c r="AB10" s="206" t="inlineStr">
         <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AC10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AD10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AE10" s="206" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AF10" s="206" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AC10" s="206" t="inlineStr">
+      <c r="AG10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AD10" s="206" t="inlineStr">
+      <c r="AH10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AE10" s="206" t="inlineStr">
+      <c r="AI10" s="206" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="AF10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AG10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AH10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="AI10" s="206" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
       <c r="AJ10" s="206" t="inlineStr">
         <is>
           <t>E</t>
@@ -49639,7 +49611,7 @@
         </is>
       </c>
     </row>
-    <row r="11" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="11" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B11" s="574" t="inlineStr">
         <is>
           <t>改良体に作用する
@@ -49657,124 +49629,124 @@
         </is>
       </c>
       <c r="E11" s="793" t="n">
-        <v>132.5</v>
+        <v>254.3</v>
       </c>
       <c r="F11" s="794" t="n">
-        <v>190.3</v>
+        <v>328.2</v>
       </c>
       <c r="G11" s="794" t="n">
-        <v>84.90000000000001</v>
+        <v>29.1</v>
       </c>
       <c r="H11" s="794" t="n">
-        <v>172</v>
+        <v>372.9</v>
       </c>
       <c r="I11" s="794" t="n">
-        <v>182</v>
+        <v>208.7</v>
       </c>
       <c r="J11" s="794" t="n">
-        <v>181.7</v>
+        <v>162.6</v>
       </c>
       <c r="K11" s="216" t="n">
-        <v>172.8</v>
+        <v>215.2</v>
       </c>
       <c r="L11" s="216" t="n">
-        <v>217.2</v>
+        <v>360.4</v>
       </c>
       <c r="M11" s="216" t="n">
-        <v>212</v>
+        <v>343.6</v>
       </c>
       <c r="N11" s="216" t="n">
-        <v>200</v>
+        <v>119.9</v>
       </c>
       <c r="O11" s="216" t="n">
-        <v>150.3</v>
+        <v>205.3</v>
       </c>
       <c r="P11" s="216" t="n">
-        <v>246.8</v>
+        <v>174.9</v>
       </c>
       <c r="Q11" s="216" t="n">
-        <v>249.5</v>
+        <v>107</v>
       </c>
       <c r="R11" s="216" t="n">
-        <v>174.7</v>
+        <v>272.7</v>
       </c>
       <c r="S11" s="795" t="n">
-        <v>163</v>
+        <v>337.7</v>
       </c>
       <c r="T11" s="217" t="n">
-        <v>153.2</v>
+        <v>129.3</v>
       </c>
       <c r="U11" s="217" t="n">
-        <v>151.7</v>
+        <v>245.2</v>
       </c>
       <c r="V11" s="217" t="n">
-        <v>147.4</v>
+        <v>341.8</v>
       </c>
       <c r="W11" s="217" t="n">
-        <v>142.3</v>
+        <v>182.5</v>
       </c>
       <c r="X11" s="217" t="n">
-        <v>154.3</v>
+        <v>351.4</v>
       </c>
       <c r="Y11" s="217" t="n">
-        <v>175.2</v>
+        <v>397.2</v>
       </c>
       <c r="Z11" s="217" t="n">
-        <v>73.3</v>
+        <v>280.4</v>
       </c>
       <c r="AA11" s="217" t="n">
-        <v>89</v>
+        <v>115.5</v>
       </c>
       <c r="AB11" s="217" t="n">
-        <v>123.8</v>
+        <v>120.3</v>
       </c>
       <c r="AC11" s="217" t="n">
-        <v>158.4</v>
+        <v>179.3</v>
       </c>
       <c r="AD11" s="217" t="n">
-        <v>157.7</v>
+        <v>230.1</v>
       </c>
       <c r="AE11" s="217" t="n">
-        <v>137</v>
+        <v>122.7</v>
       </c>
       <c r="AF11" s="217" t="n">
-        <v>134.1</v>
+        <v>131.9</v>
       </c>
       <c r="AG11" s="217" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH11" s="217" t="n">
-        <v>132.3</v>
+        <v>132.6</v>
       </c>
       <c r="AI11" s="217" t="n">
-        <v>130.6</v>
+        <v>131</v>
       </c>
       <c r="AJ11" s="217" t="n">
-        <v>122.6</v>
+        <v>138.8</v>
       </c>
       <c r="AK11" s="217" t="n">
-        <v>166.5</v>
+        <v>201.6</v>
       </c>
       <c r="AL11" s="217" t="n">
-        <v>164.8</v>
+        <v>208.3</v>
       </c>
       <c r="AM11" s="217" t="n">
-        <v>170.3</v>
+        <v>187.4</v>
       </c>
       <c r="AN11" s="217" t="n">
-        <v>165.8</v>
+        <v>198.5</v>
       </c>
       <c r="AO11" s="217" t="n">
-        <v>182</v>
+        <v>196.3</v>
       </c>
       <c r="AP11" s="217" t="n">
-        <v>203.6</v>
+        <v>207.3</v>
       </c>
       <c r="AQ11" s="218" t="n">
-        <v>138.4</v>
-      </c>
-    </row>
-    <row r="12" ht="12.95" customFormat="1" customHeight="1" s="202">
+        <v>141.1</v>
+      </c>
+    </row>
+    <row r="12" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B12" s="544" t="n"/>
       <c r="C12" s="164" t="inlineStr">
         <is>
@@ -49832,7 +49804,7 @@
       <c r="AP12" s="204" t="n"/>
       <c r="AQ12" s="219" t="n"/>
     </row>
-    <row r="13" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="13" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B13" s="544" t="n"/>
       <c r="C13" s="164" t="inlineStr">
         <is>
@@ -50001,7 +49973,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="14" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B14" s="544" t="n"/>
       <c r="C14" s="164" t="inlineStr">
         <is>
@@ -50056,7 +50028,7 @@
       <c r="AP14" s="204" t="n"/>
       <c r="AQ14" s="219" t="n"/>
     </row>
-    <row r="15" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="15" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B15" s="544" t="n"/>
       <c r="C15" s="164" t="inlineStr">
         <is>
@@ -50225,7 +50197,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="16" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B16" s="544" t="n"/>
       <c r="C16" s="164" t="n"/>
       <c r="D16" s="165" t="n"/>
@@ -50269,7 +50241,7 @@
       <c r="AP16" s="204" t="n"/>
       <c r="AQ16" s="219" t="n"/>
     </row>
-    <row r="17" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="17" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B17" s="544" t="n"/>
       <c r="C17" s="164" t="n"/>
       <c r="D17" s="165" t="n"/>
@@ -50313,7 +50285,7 @@
       <c r="AP17" s="204" t="n"/>
       <c r="AQ17" s="219" t="n"/>
     </row>
-    <row r="18" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="18" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B18" s="544" t="n"/>
       <c r="C18" s="202" t="inlineStr">
         <is>
@@ -50443,7 +50415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="19" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B19" s="544" t="n"/>
       <c r="C19" s="164" t="inlineStr">
         <is>
@@ -50612,7 +50584,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" ht="12.95" customFormat="1" customHeight="1" s="202">
+    <row r="20" ht="13" customFormat="1" customHeight="1" s="202">
       <c r="B20" s="540" t="n"/>
       <c r="C20" s="166" t="inlineStr">
         <is>
@@ -50781,7 +50753,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" ht="12.95" customHeight="1" s="173">
+    <row r="21" ht="13" customHeight="1" s="173">
       <c r="B21" s="564" t="inlineStr">
         <is>
           <t>水平方向
@@ -50951,7 +50923,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" ht="12.95" customHeight="1" s="173">
+    <row r="22" ht="13" customHeight="1" s="173">
       <c r="B22" s="544" t="n"/>
       <c r="C22" s="164" t="inlineStr">
         <is>
@@ -51116,7 +51088,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" ht="12.95" customHeight="1" s="173">
+    <row r="23" ht="13" customHeight="1" s="173">
       <c r="B23" s="544" t="n"/>
       <c r="C23" s="164" t="inlineStr">
         <is>
@@ -51285,7 +51257,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" ht="12.95" customHeight="1" s="173">
+    <row r="24" ht="13" customHeight="1" s="173">
       <c r="B24" s="544" t="n"/>
       <c r="C24" s="164" t="inlineStr">
         <is>
@@ -51454,7 +51426,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" ht="12.95" customHeight="1" s="173">
+    <row r="25" ht="13" customHeight="1" s="173">
       <c r="B25" s="540" t="n"/>
       <c r="C25" s="166" t="inlineStr">
         <is>
@@ -51619,7 +51591,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" ht="12.95" customHeight="1" s="173">
+    <row r="26" ht="13" customHeight="1" s="173">
       <c r="B26" s="564" t="inlineStr">
         <is>
           <t>群杭効果を考慮した
@@ -51793,7 +51765,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" ht="12.95" customHeight="1" s="173">
+    <row r="27" ht="13" customHeight="1" s="173">
       <c r="B27" s="544" t="n"/>
       <c r="C27" s="164" t="inlineStr">
         <is>
@@ -51962,7 +51934,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" ht="12.95" customHeight="1" s="173">
+    <row r="28" ht="13" customHeight="1" s="173">
       <c r="B28" s="544" t="n"/>
       <c r="C28" s="164" t="inlineStr">
         <is>
@@ -52127,7 +52099,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" ht="12.95" customHeight="1" s="173">
+    <row r="29" ht="13" customHeight="1" s="173">
       <c r="B29" s="544" t="n"/>
       <c r="C29" s="164" t="inlineStr">
         <is>
@@ -52292,7 +52264,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" ht="12.95" customHeight="1" s="173">
+    <row r="30" ht="13" customHeight="1" s="173">
       <c r="B30" s="544" t="n"/>
       <c r="C30" s="164" t="inlineStr">
         <is>
@@ -52461,7 +52433,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" ht="12.95" customHeight="1" s="173">
+    <row r="31" ht="13" customHeight="1" s="173">
       <c r="B31" s="544" t="n"/>
       <c r="C31" s="164" t="inlineStr">
         <is>
@@ -52626,7 +52598,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" ht="12.95" customHeight="1" s="173">
+    <row r="32" ht="13" customHeight="1" s="173">
       <c r="B32" s="544" t="n"/>
       <c r="C32" s="164" t="inlineStr">
         <is>
@@ -52791,7 +52763,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" ht="12.95" customHeight="1" s="173">
+    <row r="33" ht="13" customHeight="1" s="173">
       <c r="B33" s="544" t="n"/>
       <c r="C33" s="164" t="inlineStr">
         <is>
@@ -52956,7 +52928,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" ht="12.95" customHeight="1" s="173">
+    <row r="34" ht="13" customHeight="1" s="173">
       <c r="B34" s="544" t="n"/>
       <c r="C34" s="164" t="inlineStr">
         <is>
@@ -53121,7 +53093,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" ht="12.95" customHeight="1" s="173">
+    <row r="35" ht="13" customHeight="1" s="173">
       <c r="B35" s="544" t="n"/>
       <c r="C35" s="164" t="inlineStr">
         <is>
@@ -53286,7 +53258,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" ht="12.95" customHeight="1" s="173">
+    <row r="36" ht="13" customHeight="1" s="173">
       <c r="B36" s="540" t="n"/>
       <c r="C36" s="166" t="inlineStr">
         <is>
@@ -53451,7 +53423,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" ht="12.95" customHeight="1" s="173">
+    <row r="37" ht="13" customHeight="1" s="173">
       <c r="B37" s="564" t="inlineStr">
         <is>
           <t>曲げモーメントの算定</t>
@@ -53624,7 +53596,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" ht="12.95" customHeight="1" s="173">
+    <row r="38" ht="13" customHeight="1" s="173">
       <c r="B38" s="544" t="n"/>
       <c r="C38" s="164" t="inlineStr">
         <is>
@@ -53793,7 +53765,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" ht="12.95" customHeight="1" s="173">
+    <row r="39" ht="13" customHeight="1" s="173">
       <c r="B39" s="544" t="n"/>
       <c r="C39" s="164" t="inlineStr">
         <is>
@@ -53962,7 +53934,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" ht="12.95" customHeight="1" s="173">
+    <row r="40" ht="13" customHeight="1" s="173">
       <c r="B40" s="544" t="n"/>
       <c r="C40" s="164" t="inlineStr">
         <is>
@@ -54127,7 +54099,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" ht="12.95" customHeight="1" s="173">
+    <row r="41" ht="13" customHeight="1" s="173">
       <c r="B41" s="544" t="n"/>
       <c r="C41" s="164" t="inlineStr">
         <is>
@@ -54296,7 +54268,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" ht="12.95" customHeight="1" s="173">
+    <row r="42" ht="13" customHeight="1" s="173">
       <c r="B42" s="544" t="n"/>
       <c r="C42" s="164" t="inlineStr">
         <is>
@@ -54461,7 +54433,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" ht="12.95" customHeight="1" s="173">
+    <row r="43" ht="13" customHeight="1" s="173">
       <c r="B43" s="544" t="n"/>
       <c r="C43" s="164" t="inlineStr">
         <is>
@@ -54626,7 +54598,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" ht="12.95" customHeight="1" s="173">
+    <row r="44" ht="13" customHeight="1" s="173">
       <c r="B44" s="544" t="n"/>
       <c r="C44" s="164" t="inlineStr">
         <is>
@@ -54791,7 +54763,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" ht="12.95" customHeight="1" s="173">
+    <row r="45" ht="13" customHeight="1" s="173">
       <c r="B45" s="544" t="n"/>
       <c r="C45" s="164" t="inlineStr">
         <is>
@@ -54917,7 +54889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" ht="12.95" customHeight="1" s="173">
+    <row r="46" ht="13" customHeight="1" s="173">
       <c r="B46" s="544" t="n"/>
       <c r="C46" s="164" t="inlineStr">
         <is>
@@ -55086,7 +55058,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" ht="12.95" customHeight="1" s="173">
+    <row r="47" ht="13" customHeight="1" s="173">
       <c r="B47" s="544" t="n"/>
       <c r="C47" s="164" t="inlineStr">
         <is>
@@ -55255,7 +55227,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" ht="12.95" customHeight="1" s="173">
+    <row r="48" ht="13" customHeight="1" s="173">
       <c r="B48" s="540" t="n"/>
       <c r="C48" s="166" t="inlineStr">
         <is>
@@ -55424,7 +55396,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" ht="12.95" customHeight="1" s="173">
+    <row r="49" ht="13" customHeight="1" s="173">
       <c r="B49" s="569" t="inlineStr">
         <is>
           <t>縁応力度の
@@ -55598,7 +55570,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" ht="12.95" customHeight="1" s="173">
+    <row r="50" ht="13" customHeight="1" s="173">
       <c r="B50" s="558" t="n"/>
       <c r="C50" s="164" t="inlineStr">
         <is>
@@ -55767,7 +55739,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" ht="12.95" customHeight="1" s="173">
+    <row r="51" ht="13" customHeight="1" s="173">
       <c r="B51" s="558" t="n"/>
       <c r="C51" s="164" t="inlineStr">
         <is>
@@ -55936,7 +55908,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" ht="12.95" customHeight="1" s="173">
+    <row r="52" ht="13" customHeight="1" s="173">
       <c r="B52" s="558" t="n"/>
       <c r="C52" s="164" t="inlineStr">
         <is>
@@ -56101,7 +56073,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" ht="12.95" customHeight="1" s="173">
+    <row r="53" ht="13" customHeight="1" s="173">
       <c r="B53" s="558" t="n"/>
       <c r="C53" s="164" t="inlineStr">
         <is>
@@ -56270,7 +56242,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" ht="12.95" customHeight="1" s="173">
+    <row r="54" ht="13" customHeight="1" s="173">
       <c r="B54" s="558" t="n"/>
       <c r="C54" s="164" t="inlineStr">
         <is>
@@ -56439,7 +56411,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" ht="12.95" customHeight="1" s="173">
+    <row r="55" ht="13" customHeight="1" s="173">
       <c r="B55" s="559" t="n"/>
       <c r="C55" s="166" t="inlineStr">
         <is>
@@ -56604,7 +56576,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" ht="12.95" customHeight="1" s="173">
+    <row r="56" ht="13" customHeight="1" s="173">
       <c r="B56" s="569" t="inlineStr">
         <is>
           <t>せん断
@@ -56779,7 +56751,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" ht="12.95" customHeight="1" s="173">
+    <row r="57" ht="13" customHeight="1" s="173">
       <c r="B57" s="558" t="n"/>
       <c r="C57" s="164" t="inlineStr">
         <is>
@@ -56948,7 +56920,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" ht="12.95" customHeight="1" s="173">
+    <row r="58" ht="13" customHeight="1" s="173">
       <c r="B58" s="558" t="n"/>
       <c r="C58" s="164" t="inlineStr">
         <is>
@@ -57117,7 +57089,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" ht="12.95" customHeight="1" s="173">
+    <row r="59" ht="13" customHeight="1" s="173">
       <c r="B59" s="558" t="n"/>
       <c r="C59" s="164" t="inlineStr">
         <is>
@@ -57286,7 +57258,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" ht="12.95" customHeight="1" s="173">
+    <row r="60" ht="13" customHeight="1" s="173">
       <c r="B60" s="558" t="n"/>
       <c r="C60" s="164" t="inlineStr">
         <is>
@@ -57455,7 +57427,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" ht="12.95" customHeight="1" s="173">
+    <row r="61" ht="13" customHeight="1" s="173">
       <c r="B61" s="559" t="n"/>
       <c r="C61" s="166" t="inlineStr">
         <is>
@@ -57648,6 +57620,14 @@
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -57663,28 +57643,28 @@
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col width="9" customWidth="1" style="39" min="1" max="1"/>
-    <col width="6.375" customWidth="1" style="39" min="2" max="2"/>
-    <col width="13.875" customWidth="1" style="39" min="3" max="3"/>
+    <col width="6.3671875" customWidth="1" style="39" min="2" max="2"/>
+    <col width="13.89453125" customWidth="1" style="39" min="3" max="3"/>
     <col width="9" customWidth="1" style="39" min="4" max="6"/>
-    <col width="3.75" customWidth="1" style="39" min="7" max="7"/>
+    <col width="3.734375" customWidth="1" style="39" min="7" max="7"/>
     <col width="9" customWidth="1" style="39" min="8" max="10"/>
     <col width="10" customWidth="1" style="39" min="11" max="11"/>
-    <col width="10.375" customWidth="1" style="39" min="12" max="13"/>
-    <col width="11.75" customWidth="1" style="39" min="14" max="17"/>
-    <col width="2.625" customWidth="1" style="39" min="18" max="18"/>
-    <col width="11.75" customWidth="1" style="39" min="19" max="22"/>
-    <col width="2.625" customWidth="1" style="39" min="23" max="23"/>
-    <col width="11.75" customWidth="1" style="39" min="24" max="27"/>
-    <col width="2.625" customWidth="1" style="39" min="28" max="28"/>
-    <col width="11.75" customWidth="1" style="39" min="29" max="32"/>
-    <col width="2.625" customWidth="1" style="39" min="33" max="33"/>
-    <col width="11.75" customWidth="1" style="39" min="34" max="43"/>
-    <col width="3.875" customWidth="1" style="39" min="44" max="49"/>
-    <col width="9" customWidth="1" style="39" min="50" max="92"/>
-    <col width="9" customWidth="1" style="39" min="93" max="16384"/>
+    <col width="10.3671875" customWidth="1" style="39" min="12" max="13"/>
+    <col width="11.734375" customWidth="1" style="39" min="14" max="17"/>
+    <col width="2.62890625" customWidth="1" style="39" min="18" max="18"/>
+    <col width="11.734375" customWidth="1" style="39" min="19" max="22"/>
+    <col width="2.62890625" customWidth="1" style="39" min="23" max="23"/>
+    <col width="11.734375" customWidth="1" style="39" min="24" max="27"/>
+    <col width="2.62890625" customWidth="1" style="39" min="28" max="28"/>
+    <col width="11.734375" customWidth="1" style="39" min="29" max="32"/>
+    <col width="2.62890625" customWidth="1" style="39" min="33" max="33"/>
+    <col width="11.734375" customWidth="1" style="39" min="34" max="43"/>
+    <col width="3.89453125" customWidth="1" style="39" min="44" max="49"/>
+    <col width="9" customWidth="1" style="39" min="50" max="96"/>
+    <col width="9" customWidth="1" style="39" min="97" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -63839,6 +63819,14 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.512" footer="0.512"/>
   <pageSetup orientation="portrait" paperSize="9" scale="67" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <colBreaks count="3" manualBreakCount="3">
     <brk id="10" min="0" max="67" man="1"/>
     <brk id="23" min="0" max="67" man="1"/>
@@ -63855,32 +63843,32 @@
   </sheetPr>
   <dimension ref="A1:AP74"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A37" zoomScale="75" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A28" zoomScale="75" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
     <col width="9" customWidth="1" style="39" min="1" max="1"/>
-    <col width="6.375" customWidth="1" style="39" min="2" max="2"/>
-    <col width="13.875" customWidth="1" style="39" min="3" max="3"/>
+    <col width="6.3671875" customWidth="1" style="39" min="2" max="2"/>
+    <col width="13.89453125" customWidth="1" style="39" min="3" max="3"/>
     <col width="9" customWidth="1" style="39" min="4" max="6"/>
-    <col width="3.75" customWidth="1" style="39" min="7" max="7"/>
+    <col width="3.734375" customWidth="1" style="39" min="7" max="7"/>
     <col width="9" customWidth="1" style="39" min="8" max="10"/>
     <col width="10" customWidth="1" style="39" min="11" max="11"/>
-    <col width="10.375" customWidth="1" style="39" min="12" max="13"/>
-    <col width="11.75" customWidth="1" style="39" min="14" max="17"/>
-    <col width="2.625" customWidth="1" style="39" min="18" max="18"/>
-    <col width="11.75" customWidth="1" style="39" min="19" max="22"/>
-    <col width="2.625" customWidth="1" style="39" min="23" max="23"/>
-    <col width="11.75" customWidth="1" style="39" min="24" max="27"/>
-    <col width="2.625" customWidth="1" style="39" min="28" max="28"/>
-    <col width="11.75" customWidth="1" style="39" min="29" max="32"/>
-    <col width="2.625" customWidth="1" style="39" min="33" max="33"/>
-    <col width="11.75" customWidth="1" style="39" min="34" max="43"/>
-    <col width="3.875" customWidth="1" style="39" min="44" max="49"/>
-    <col width="9" customWidth="1" style="39" min="50" max="92"/>
-    <col width="9" customWidth="1" style="39" min="93" max="16384"/>
+    <col width="10.3671875" customWidth="1" style="39" min="12" max="13"/>
+    <col width="11.734375" customWidth="1" style="39" min="14" max="17"/>
+    <col width="2.62890625" customWidth="1" style="39" min="18" max="18"/>
+    <col width="11.734375" customWidth="1" style="39" min="19" max="22"/>
+    <col width="2.62890625" customWidth="1" style="39" min="23" max="23"/>
+    <col width="11.734375" customWidth="1" style="39" min="24" max="27"/>
+    <col width="2.62890625" customWidth="1" style="39" min="28" max="28"/>
+    <col width="11.734375" customWidth="1" style="39" min="29" max="32"/>
+    <col width="2.62890625" customWidth="1" style="39" min="33" max="33"/>
+    <col width="11.734375" customWidth="1" style="39" min="34" max="43"/>
+    <col width="3.89453125" customWidth="1" style="39" min="44" max="49"/>
+    <col width="9" customWidth="1" style="39" min="50" max="96"/>
+    <col width="9" customWidth="1" style="39" min="97" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -70041,6 +70029,14 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.512" footer="0.512"/>
   <pageSetup orientation="portrait" paperSize="9" scale="67" fitToWidth="2" blackAndWhite="1"/>
+  <headerFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Yu Gothic"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Confidential_x000d_&amp;1#&amp;"Calibri"&amp;10 &amp;K000000Confidential</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
   <colBreaks count="3" manualBreakCount="3">
     <brk id="10" min="0" max="67" man="1"/>
     <brk id="23" min="0" max="67" man="1"/>
